--- a/d.iblog2/単体テスト.xlsx
+++ b/d.iblog2/単体テスト.xlsx
@@ -6,13 +6,12 @@
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId4"/>
-    <sheet name="シート1-1" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>表1</t>
   </si>
@@ -41,46 +40,68 @@
     <t>環境</t>
   </si>
   <si>
-    <t>登録画面表示</t>
-  </si>
-  <si>
-    <t>D.Iblogのメニューバーの登録フォームをクリック</t>
-  </si>
-  <si>
-    <t>D.Iblog画面からアカウント登録画面に遷移</t>
-  </si>
-  <si>
-    <t>アカウント登録画面表示</t>
-  </si>
-  <si>
-    <t>アカウント登録画面を目視①</t>
-  </si>
-  <si>
-    <t>登録項目は１２項目あるか</t>
-  </si>
-  <si>
-    <t>アカウント登録画面②</t>
-  </si>
-  <si>
-    <t>名前（姓）、名前（名）、カナ（姓）、カナ（名）、メールアドレス、パスワード、郵便番号、住所（市町村）、住所（番地）の９項目に入力フィールドがあるか</t>
-  </si>
-  <si>
-    <t>アカウント登録画面③</t>
-  </si>
-  <si>
-    <t>都道府県、管理者権限の２項目はプルダウンになっているか</t>
-  </si>
-  <si>
-    <t>アカウント登録画面④</t>
-  </si>
-  <si>
-    <t>性別は選択形式になっているか</t>
-  </si>
-  <si>
-    <t>アカウント登録画面⑤</t>
-  </si>
-  <si>
-    <t>登録ボタンがセットされているか</t>
+    <t>D.Iblogにアクセス</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t>http://localhost/d.iblog2/23index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve"> にアクセス</t>
+    </r>
+  </si>
+  <si>
+    <t>D.Iblogのホーム画面を表示</t>
+  </si>
+  <si>
+    <t>アカウント登録画面の表示</t>
+  </si>
+  <si>
+    <t>D.Iblogのツールバーの’登録フォーム’をクッリク</t>
+  </si>
+  <si>
+    <t>アカウント登録画面に遷移し、アカウント登録画面を表示する</t>
+  </si>
+  <si>
+    <t>登録フォームの確認</t>
+  </si>
+  <si>
+    <t>名前（姓）の項目の確認</t>
+  </si>
+  <si>
+    <t>・名前（姓）項目のラベルは表示されている</t>
+  </si>
+  <si>
+    <t>・入力フィールドがある</t>
+  </si>
+  <si>
+    <t>名前（姓）の項目入力確認</t>
+  </si>
+  <si>
+    <t>・入力フィールドに入力は可能</t>
+  </si>
+  <si>
+    <t>名前（名）の項目の確認</t>
+  </si>
+  <si>
+    <t>・名前（名）の項目のラベルは表示されている</t>
+  </si>
+  <si>
+    <t>名前（名）の項目入力確認</t>
+  </si>
+  <si>
+    <t>・入力フィールドに入力できる</t>
   </si>
 </sst>
 </file>
@@ -90,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -105,6 +126,12 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -319,22 +346,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1515,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" ht="33.45" customHeight="1">
+    <row r="4" ht="79.6" customHeight="1">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1506,26 +1533,28 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" ht="153.45" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" t="s" s="16">
+    <row r="5" ht="48.45" customHeight="1">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="16">
+      <c r="C5" t="s" s="15">
         <v>16</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" ht="63.45" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="D5" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" ht="33.45" customHeight="1">
+      <c r="A6" s="17"/>
       <c r="B6" s="18"/>
-      <c r="C6" t="s" s="12">
-        <v>17</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" t="s" s="12">
         <v>18</v>
       </c>
@@ -1535,21 +1564,23 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" ht="33.45" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" t="s" s="16">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="D7" t="s" s="16">
+      <c r="D7" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" ht="33.45" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" ht="48.45" customHeight="1">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
       <c r="B8" s="18"/>
       <c r="C8" t="s" s="12">
         <v>21</v>
@@ -1562,25 +1593,27 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" ht="18.45" customHeight="1">
-      <c r="A9" s="10">
-        <v>3</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" ht="18.45" customHeight="1">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
+    <row r="9" ht="33.45" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" ht="33.45" customHeight="1">
+      <c r="A10" s="17"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>24</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1590,13 +1623,13 @@
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="18.45" customHeight="1">
       <c r="A12" s="10">
@@ -1614,13 +1647,13 @@
       <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="18.45" customHeight="1">
       <c r="A14" s="10">
@@ -1638,13 +1671,13 @@
       <c r="A15" s="10">
         <v>9</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="18.45" customHeight="1">
       <c r="A16" s="10">
@@ -1662,13 +1695,13 @@
       <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="18.45" customHeight="1">
       <c r="A18" s="10">
@@ -1686,13 +1719,13 @@
       <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="18.45" customHeight="1">
       <c r="A20" s="10">
@@ -1710,13 +1743,13 @@
       <c r="A21" s="10">
         <v>15</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="18.45" customHeight="1">
       <c r="A22" s="10">
@@ -1734,13 +1767,13 @@
       <c r="A23" s="10">
         <v>17</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="18.45" customHeight="1">
       <c r="A24" s="10">
@@ -1758,13 +1791,13 @@
       <c r="A25" s="10">
         <v>19</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" ht="18.45" customHeight="1">
       <c r="A26" s="10">
@@ -1782,405 +1815,21 @@
       <c r="A27" s="10">
         <v>21</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="4.8125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="17.8125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.6016" style="19" customWidth="1"/>
-    <col min="4" max="8" width="19.6016" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="19.6016" style="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" ht="18.7" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="48.7" customHeight="1">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" ht="33.45" customHeight="1">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" ht="153.45" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" ht="63.45" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18"/>
-      <c r="C6" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" ht="33.45" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" t="s" s="16">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" ht="33.45" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18"/>
-      <c r="C8" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" ht="18.45" customHeight="1">
-      <c r="A9" s="10">
-        <v>3</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" ht="18.45" customHeight="1">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" ht="18.45" customHeight="1">
-      <c r="A11" s="10">
-        <v>5</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" ht="18.45" customHeight="1">
-      <c r="A12" s="10">
-        <v>6</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" ht="18.45" customHeight="1">
-      <c r="A13" s="10">
-        <v>7</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" ht="18.45" customHeight="1">
-      <c r="A14" s="10">
-        <v>8</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" ht="18.45" customHeight="1">
-      <c r="A15" s="10">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" ht="18.45" customHeight="1">
-      <c r="A16" s="10">
-        <v>10</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" ht="18.45" customHeight="1">
-      <c r="A17" s="10">
-        <v>11</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" ht="18.45" customHeight="1">
-      <c r="A18" s="10">
-        <v>12</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" ht="18.45" customHeight="1">
-      <c r="A19" s="10">
-        <v>13</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" ht="18.45" customHeight="1">
-      <c r="A20" s="10">
-        <v>14</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" ht="18.45" customHeight="1">
-      <c r="A21" s="10">
-        <v>15</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" ht="18.45" customHeight="1">
-      <c r="A22" s="10">
-        <v>16</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" ht="18.45" customHeight="1">
-      <c r="A23" s="10">
-        <v>17</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" ht="18.45" customHeight="1">
-      <c r="A24" s="10">
-        <v>18</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" ht="18.45" customHeight="1">
-      <c r="A25" s="10">
-        <v>19</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" ht="18.45" customHeight="1">
-      <c r="A26" s="10">
-        <v>20</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" ht="18.45" customHeight="1">
-      <c r="A27" s="10">
-        <v>21</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="http://localhost/d.iblog2/23index.html"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/d.iblog2/単体テスト.xlsx
+++ b/d.iblog2/単体テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>表1</t>
   </si>
@@ -77,31 +77,85 @@
     <t>登録フォームの確認</t>
   </si>
   <si>
-    <t>名前（姓）の項目の確認</t>
-  </si>
-  <si>
-    <t>・名前（姓）項目のラベルは表示されている</t>
-  </si>
-  <si>
-    <t>・入力フィールドがある</t>
-  </si>
-  <si>
-    <t>名前（姓）の項目入力確認</t>
-  </si>
-  <si>
-    <t>・入力フィールドに入力は可能</t>
-  </si>
-  <si>
-    <t>名前（名）の項目の確認</t>
-  </si>
-  <si>
-    <t>・名前（名）の項目のラベルは表示されている</t>
-  </si>
-  <si>
-    <t>名前（名）の項目入力確認</t>
-  </si>
-  <si>
-    <t>・入力フィールドに入力できる</t>
+    <t>名前（姓）の項目を目視で確認</t>
+  </si>
+  <si>
+    <t>・名前（姓）の項目のラベルは表示されている</t>
+  </si>
+  <si>
+    <t>・入力BOXがあることを目視で確認</t>
+  </si>
+  <si>
+    <t>名前（姓）の項目の入力BOXに文字を入力をする</t>
+  </si>
+  <si>
+    <t>・入力BOXに入力ができる</t>
+  </si>
+  <si>
+    <t>名前（名）の項目を目視で確認</t>
+  </si>
+  <si>
+    <t>・名前（名）の項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>・入力BOXがあることを目視で確認できる</t>
+  </si>
+  <si>
+    <t>名前（名）の項目の入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>カナ（姓）の項目を目視で確認</t>
+  </si>
+  <si>
+    <t>・カナ（姓）の項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>カナ（姓）の項目の入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>・入力BOXに入力が可能である</t>
+  </si>
+  <si>
+    <t>カナ（名）の項目を目視で確認する</t>
+  </si>
+  <si>
+    <t>・カナ（名）の項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>カナ（名）の入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>メールの項目を目視で確認する</t>
+  </si>
+  <si>
+    <t>・メールの項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>メールの入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>パスワードの項目を目視で確認する</t>
+  </si>
+  <si>
+    <t>・パスワードの項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>パスワードの入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>性別の項目を目視で確認する</t>
+  </si>
+  <si>
+    <t>・性別の項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>・男、女の選択肢があり、男が選択されている状態になっている</t>
+  </si>
+  <si>
+    <t>性別項目の女を選択する</t>
+  </si>
+  <si>
+    <t>・性別の前の丸内の印が女の前に移動したことが確認できる</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1563,7 +1617,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" ht="33.45" customHeight="1">
+    <row r="7" ht="48.45" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="19"/>
       <c r="C7" t="s" s="15">
@@ -1593,207 +1647,241 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" ht="33.45" customHeight="1">
+    <row r="9" ht="48.45" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="19"/>
       <c r="C9" s="16"/>
       <c r="D9" t="s" s="15">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" ht="33.45" customHeight="1">
+    <row r="10" ht="48.45" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" t="s" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" ht="18.45" customHeight="1">
+    <row r="11" ht="48.45" customHeight="1">
       <c r="A11" s="10">
         <v>5</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="15">
+        <v>26</v>
+      </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" ht="18.45" customHeight="1">
-      <c r="A12" s="10">
-        <v>6</v>
-      </c>
+    <row r="12" ht="48.45" customHeight="1">
+      <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="D12" t="s" s="12">
+        <v>23</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" ht="18.45" customHeight="1">
-      <c r="A13" s="10">
-        <v>7</v>
-      </c>
+    <row r="13" ht="48.45" customHeight="1">
+      <c r="A13" s="17"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s" s="15">
+        <v>28</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" ht="18.45" customHeight="1">
+    <row r="14" ht="48.45" customHeight="1">
       <c r="A14" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>30</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" ht="18.45" customHeight="1">
-      <c r="A15" s="10">
-        <v>9</v>
-      </c>
+    <row r="15" ht="48.45" customHeight="1">
+      <c r="A15" s="17"/>
       <c r="B15" s="19"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="D15" t="s" s="15">
+        <v>23</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" ht="18.45" customHeight="1">
-      <c r="A16" s="10">
-        <v>10</v>
-      </c>
+    <row r="16" ht="48.45" customHeight="1">
+      <c r="A16" s="17"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>28</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" ht="18.45" customHeight="1">
+    <row r="17" ht="48.45" customHeight="1">
       <c r="A17" s="10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="15">
+        <v>33</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" ht="18.45" customHeight="1">
-      <c r="A18" s="10">
-        <v>12</v>
-      </c>
+    <row r="18" ht="48.45" customHeight="1">
+      <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" t="s" s="12">
+        <v>23</v>
+      </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" ht="18.45" customHeight="1">
-      <c r="A19" s="10">
-        <v>13</v>
-      </c>
+    <row r="19" ht="33.45" customHeight="1">
+      <c r="A19" s="17"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s" s="15">
+        <v>28</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" ht="18.45" customHeight="1">
+    <row r="20" ht="48.45" customHeight="1">
       <c r="A20" s="10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>36</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" ht="18.45" customHeight="1">
-      <c r="A21" s="10">
-        <v>15</v>
-      </c>
+    <row r="21" ht="48.45" customHeight="1">
+      <c r="A21" s="17"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="D21" t="s" s="15">
+        <v>23</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" ht="18.45" customHeight="1">
-      <c r="A22" s="10">
-        <v>16</v>
-      </c>
+    <row r="22" ht="48.45" customHeight="1">
+      <c r="A22" s="17"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>28</v>
+      </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" ht="18.45" customHeight="1">
+    <row r="23" ht="48.45" customHeight="1">
       <c r="A23" s="10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="C23" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s" s="15">
+        <v>39</v>
+      </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" ht="18.45" customHeight="1">
+    <row r="24" ht="63.45" customHeight="1">
       <c r="A24" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="D24" t="s" s="12">
+        <v>40</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" ht="18.45" customHeight="1">
+    <row r="25" ht="63.45" customHeight="1">
       <c r="A25" s="10">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B25" s="19"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="C25" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s" s="15">
+        <v>42</v>
+      </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -1801,7 +1889,7 @@
     </row>
     <row r="26" ht="18.45" customHeight="1">
       <c r="A26" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="13"/>
@@ -1813,7 +1901,7 @@
     </row>
     <row r="27" ht="18.45" customHeight="1">
       <c r="A27" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="16"/>
@@ -1822,6 +1910,102 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
+    </row>
+    <row r="28" ht="18.45" customHeight="1">
+      <c r="A28" s="10">
+        <v>14</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" ht="18.45" customHeight="1">
+      <c r="A29" s="10">
+        <v>15</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" ht="18.45" customHeight="1">
+      <c r="A30" s="10">
+        <v>16</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" ht="18.45" customHeight="1">
+      <c r="A31" s="10">
+        <v>17</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" ht="18.45" customHeight="1">
+      <c r="A32" s="10">
+        <v>18</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" ht="18.45" customHeight="1">
+      <c r="A33" s="10">
+        <v>19</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" ht="18.45" customHeight="1">
+      <c r="A34" s="10">
+        <v>20</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" ht="18.45" customHeight="1">
+      <c r="A35" s="10">
+        <v>21</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/d.iblog2/単体テスト.xlsx
+++ b/d.iblog2/単体テスト.xlsx
@@ -5,13 +5,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1-1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>表1</t>
   </si>
@@ -215,64 +215,73 @@
     <t>・登録フォームの一番下に「確認する」というグレーのボタンがあることが確認できる</t>
   </si>
   <si>
+    <t>エラーメッセージの表示</t>
+  </si>
+  <si>
+    <t>登録フォームが空欄の状態で「確認する」のボタンを押す</t>
+  </si>
+  <si>
+    <t>画面遷移せず各項目の下にエラーメッセージが表示されていることを確認</t>
+  </si>
+  <si>
     <t>入力チェック（必須項目）</t>
   </si>
   <si>
-    <t>名前（姓）を空欄の状態で確認するをクリック</t>
+    <t>名前（姓）を空欄の状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に赤字で「名前（姓）を入力してください」と表示</t>
   </si>
   <si>
-    <t>名前（名）を空欄の状態で確認するをクリック</t>
+    <t>名前（名）を空欄の状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に「名前（名）を入力してください」と表示</t>
   </si>
   <si>
-    <t>カナ（姓）を空欄の状態で確認するをクリック</t>
+    <t>カナ（姓）を空欄の状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に「カナ（姓）を入力してください」と表示</t>
   </si>
   <si>
-    <t>カナ（名）を空欄の状態で確認するをクリック</t>
+    <t>カナ（名）を空欄の状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に「カナ（名）を入力してください」と表示</t>
   </si>
   <si>
-    <t>メールアドレスを空欄の状態で確認するをクリック</t>
+    <t>メールアドレスを空欄の状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に「メールを入力してください」と表示</t>
   </si>
   <si>
-    <t>パスワードを空欄の状態で確認するをクリック</t>
+    <t>パスワードを空欄の状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に「パスワードを入力してください」と表示</t>
   </si>
   <si>
-    <t>郵便番号を空欄の状態で確認するをクリック</t>
+    <t>郵便番号を空欄の状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に「郵便番号を入力してください」と表示</t>
   </si>
   <si>
-    <t>住所（都道府県）の項目を選択しない状態で確認するをクリック</t>
+    <t>住所（都道府県）の項目を選択しない状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に赤字で「住所（都道府県）を選択してください」と表示</t>
   </si>
   <si>
-    <t>住所（市町村）を空欄の状態で確認するをクリック</t>
+    <t>住所（市町村）を空欄の状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に「住所（市町村）を入力してください」と表示</t>
   </si>
   <si>
-    <t>住所（番地）を空欄の状態で確認するをクリック</t>
+    <t>住所（番地）を空欄の状態で「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に「住所（番地）を入力してください」と表示</t>
@@ -281,49 +290,133 @@
     <t>入力チェック（文字種）</t>
   </si>
   <si>
-    <t>名前（姓）の入力BOXにカタカナ、ローマ字で入力し、確認するをクリック</t>
+    <t>名前（姓）の入力BOXにカタカナ、ローマ字で入力し、「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に赤字で「漢字、ひらがなのみで入力してください」と表示</t>
   </si>
   <si>
-    <t>名前（名）の入力BOXにカタカナ、ローマ字で入力し、確認するをクリック</t>
-  </si>
-  <si>
-    <t>カナ（姓）の入力BOXに漢字、ひらがな、ローマ字で入力し、確認するをクリック</t>
+    <t>名前（名）の入力BOXにカタカナ、ローマ字で入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力BOXに漢字、ひらがな、ローマ字で入力し、「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に赤字で「カタカナのみで入力してください」と表示</t>
   </si>
   <si>
-    <t>カナ（名）の入力BOXに漢字、ひらがな、ローマ字で入力し、確認するをクリック</t>
-  </si>
-  <si>
-    <t>メールアドレスの入力BOXに半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）以外の文字を入力し、確認するをクリック</t>
+    <t>カナ（名）の入力BOXに漢字、ひらがな、ローマ字で入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力BOXに半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）以外の文字を入力し、「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に赤字で「メールアドレスを正しく入力してください」と表示</t>
   </si>
   <si>
-    <t>パスワードの入力BOXに半角英数字以外の文字を入力し、確認するをクリック</t>
+    <t>パスワードの入力BOXに半角英数字以外の文字を入力し、「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に赤字で「半角英数字のみで入力してください」と表示</t>
   </si>
   <si>
-    <t>郵便番号の入力BOXに半角数字以外の文字を入力し、確認するをクリック</t>
+    <t>郵便番号の入力BOXに半角数字以外の文字を入力し、「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に赤字で「数字のみで入力してください」と表示</t>
   </si>
   <si>
-    <t>住所（市町村）の入力BOXに半角英語で入力し、確認するをクリック</t>
+    <t>住所（市町村）の入力BOXに半角英語で入力し、「確認する」をクリック</t>
   </si>
   <si>
     <t>・項目の下に赤字で「正しく入力してください」と表示</t>
   </si>
   <si>
-    <t>住所（番地）の入力BOXに半角英語で入力し、確認するをクリック</t>
+    <t>住所（番地）の入力BOXに半角英語で入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>画面遷移（登録画面〜確認画面）</t>
+  </si>
+  <si>
+    <t>全ての項目を入力後「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>・登録確認画面を表示</t>
+  </si>
+  <si>
+    <t>登録確認画面の表示確認</t>
+  </si>
+  <si>
+    <t>登録画面で入力した内容が確認画面で表示されていることを目視で確認</t>
+  </si>
+  <si>
+    <t>・登録画面で入力した内容が各項目正しく表示項目名の後に表示されている</t>
+  </si>
+  <si>
+    <t>「修正」「登録」のボタンがあることを目視で確認</t>
+  </si>
+  <si>
+    <t>・フォームの下部に「修正」「登録」のボタンがあることが確認できる</t>
+  </si>
+  <si>
+    <t>画面遷移（確認画面〜登録画面）</t>
+  </si>
+  <si>
+    <t>「修正」のボタンをクリック</t>
+  </si>
+  <si>
+    <t>・「修正」をクリックし、登録画面に画面遷移する</t>
+  </si>
+  <si>
+    <t>画面表示の確認</t>
+  </si>
+  <si>
+    <t>登録画面で入力内容が保持されていることを確認</t>
+  </si>
+  <si>
+    <t>・登録画面が表示した時、パスワード以外の項目の入力内容がそのままの状態で保持されていることが確認できる</t>
+  </si>
+  <si>
+    <t>画面遷移（登録確認画面〜登録完了画面）</t>
+  </si>
+  <si>
+    <t>登録画面でパスワードを登録し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>「登録」のボタンをクリック</t>
+  </si>
+  <si>
+    <t>「登録」ボタンをクリックし、登録完了画面が表示されてことを確認</t>
+  </si>
+  <si>
+    <t>「登録ありがとうございました」と表示されていることを目視で確認</t>
+  </si>
+  <si>
+    <t>・登録完了のメッセージが正しく表示されていることを確認する</t>
+  </si>
+  <si>
+    <t>画面下部に「TOP」のボタンがあることを目視で確認</t>
+  </si>
+  <si>
+    <t>・登録完了メッセージの下に「TOP」のボタンがあることが確認できる</t>
+  </si>
+  <si>
+    <t>画面遷移（登録完了画面〜D.Iblog）</t>
+  </si>
+  <si>
+    <t>「TOP」のボタンをクリック</t>
+  </si>
+  <si>
+    <t>・「TOP」のボタンをクリックし、D.IblogのTOPページが表示されたことを確認</t>
+  </si>
+  <si>
+    <t>DBの登録内容確認</t>
+  </si>
+  <si>
+    <t>登録内容を保存しているDBのテーブルにアクセスする「lesson01,accountofrom」</t>
+  </si>
+  <si>
+    <t>・phpMyAdminの「lesson01,accountfrom」のテーブルが表示されていることを確認</t>
   </si>
 </sst>
 </file>
@@ -333,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -345,8 +438,14 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
     </font>
     <font>
@@ -356,7 +455,7 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,7 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -375,8 +474,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -386,58 +491,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -445,14 +503,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -460,14 +514,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -485,13 +537,103 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
         <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -525,65 +667,71 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,9 +751,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffc8c8c8"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff1db100"/>
-      <rgbColor rgb="ffc8c8c8"/>
       <rgbColor rgb="ff89847f"/>
       <rgbColor rgb="fff7f7f6"/>
     </indexedColors>
@@ -624,10 +774,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -804,11 +954,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -817,7 +970,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -832,12 +985,12 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -1092,12 +1245,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1388,7 +1541,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1666,11 +1819,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H59"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1685,928 +1836,1134 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="18.7" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" t="s" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="48.7" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" ht="79.6" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" ht="48.45" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="14">
+      <c r="B5" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" t="s" s="17">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="15">
+      <c r="D5" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" ht="33.45" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="13"/>
-      <c r="D6" t="s" s="12">
+      <c r="B6" s="19"/>
+      <c r="C6" s="15"/>
+      <c r="D6" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" ht="48.45" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" t="s" s="15">
+      <c r="B7" s="20"/>
+      <c r="C7" t="s" s="17">
         <v>19</v>
       </c>
-      <c r="D7" t="s" s="15">
+      <c r="D7" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" ht="48.45" customHeight="1">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" t="s" s="12">
+      <c r="B8" s="19"/>
+      <c r="C8" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="D8" t="s" s="12">
+      <c r="D8" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" ht="48.45" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
-      <c r="D9" t="s" s="15">
+      <c r="B9" s="20"/>
+      <c r="C9" s="18"/>
+      <c r="D9" t="s" s="17">
         <v>23</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" ht="48.45" customHeight="1">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" t="s" s="12">
+      <c r="B10" s="19"/>
+      <c r="C10" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="12">
+      <c r="D10" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" ht="48.45" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" t="s" s="15">
+      <c r="B11" s="20"/>
+      <c r="C11" t="s" s="17">
         <v>25</v>
       </c>
-      <c r="D11" t="s" s="15">
+      <c r="D11" t="s" s="17">
         <v>26</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" ht="48.45" customHeight="1">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="13"/>
-      <c r="D12" t="s" s="12">
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" ht="48.45" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" t="s" s="15">
+      <c r="B13" s="20"/>
+      <c r="C13" t="s" s="17">
         <v>27</v>
       </c>
-      <c r="D13" t="s" s="15">
+      <c r="D13" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" ht="48.45" customHeight="1">
-      <c r="A14" s="10">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" t="s" s="12">
+      <c r="B14" s="19"/>
+      <c r="C14" t="s" s="14">
         <v>28</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="14">
         <v>29</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" ht="48.45" customHeight="1">
-      <c r="A15" s="10">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16"/>
-      <c r="D15" t="s" s="15">
+      <c r="B15" s="20"/>
+      <c r="C15" s="18"/>
+      <c r="D15" t="s" s="17">
         <v>23</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" ht="48.45" customHeight="1">
-      <c r="A16" s="10">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" t="s" s="12">
+      <c r="B16" s="19"/>
+      <c r="C16" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D16" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" ht="48.45" customHeight="1">
-      <c r="A17" s="10">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" t="s" s="15">
+      <c r="B17" s="20"/>
+      <c r="C17" t="s" s="17">
         <v>31</v>
       </c>
-      <c r="D17" t="s" s="15">
+      <c r="D17" t="s" s="17">
         <v>32</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" ht="48.45" customHeight="1">
-      <c r="A18" s="10">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="13"/>
-      <c r="D18" t="s" s="12">
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" ht="48.45" customHeight="1">
-      <c r="A19" s="10">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" t="s" s="15">
+      <c r="B19" s="20"/>
+      <c r="C19" t="s" s="17">
         <v>33</v>
       </c>
-      <c r="D19" t="s" s="15">
+      <c r="D19" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" ht="48.45" customHeight="1">
-      <c r="A20" s="10">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" t="s" s="12">
+      <c r="B20" s="19"/>
+      <c r="C20" t="s" s="14">
         <v>34</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="14">
         <v>35</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" ht="48.45" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="16"/>
-      <c r="D21" t="s" s="15">
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" t="s" s="17">
         <v>23</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" ht="48.45" customHeight="1">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" t="s" s="12">
+      <c r="B22" s="19"/>
+      <c r="C22" t="s" s="14">
         <v>36</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="14">
         <v>37</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" ht="48.45" customHeight="1">
-      <c r="A23" s="10">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" t="s" s="15">
+      <c r="B23" s="20"/>
+      <c r="C23" t="s" s="17">
         <v>38</v>
       </c>
-      <c r="D23" t="s" s="15">
+      <c r="D23" t="s" s="17">
         <v>39</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" ht="63.45" customHeight="1">
-      <c r="A24" s="10">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13"/>
-      <c r="D24" t="s" s="12">
+      <c r="B24" s="19"/>
+      <c r="C24" s="15"/>
+      <c r="D24" t="s" s="14">
         <v>40</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" ht="48.45" customHeight="1">
-      <c r="A25" s="10">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" t="s" s="15">
+      <c r="B25" s="20"/>
+      <c r="C25" t="s" s="17">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="15">
+      <c r="D25" t="s" s="17">
         <v>42</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" ht="48.45" customHeight="1">
-      <c r="A26" s="10">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" t="s" s="12">
+      <c r="B26" s="19"/>
+      <c r="C26" t="s" s="14">
         <v>43</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="14">
         <v>44</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" ht="33.45" customHeight="1">
-      <c r="A27" s="10">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="16"/>
-      <c r="D27" t="s" s="15">
+      <c r="B27" s="20"/>
+      <c r="C27" s="18"/>
+      <c r="D27" t="s" s="17">
         <v>45</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" ht="48.45" customHeight="1">
-      <c r="A28" s="10">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" t="s" s="12">
+      <c r="B28" s="19"/>
+      <c r="C28" t="s" s="14">
         <v>46</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" ht="48.45" customHeight="1">
-      <c r="A29" s="10">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" t="s" s="15">
+      <c r="B29" s="20"/>
+      <c r="C29" t="s" s="17">
         <v>47</v>
       </c>
-      <c r="D29" t="s" s="15">
+      <c r="D29" t="s" s="17">
         <v>48</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" ht="48.45" customHeight="1">
-      <c r="A30" s="10">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="13"/>
-      <c r="D30" t="s" s="12">
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" t="s" s="14">
         <v>49</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" ht="63.45" customHeight="1">
-      <c r="A31" s="10">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" t="s" s="15">
+      <c r="B31" s="20"/>
+      <c r="C31" t="s" s="17">
         <v>50</v>
       </c>
-      <c r="D31" t="s" s="15">
+      <c r="D31" t="s" s="17">
         <v>51</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" ht="63.45" customHeight="1">
-      <c r="A32" s="10">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" t="s" s="12">
+      <c r="B32" s="19"/>
+      <c r="C32" t="s" s="14">
         <v>52</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="14">
         <v>53</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" ht="48.45" customHeight="1">
-      <c r="A33" s="10">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" t="s" s="15">
+      <c r="B33" s="20"/>
+      <c r="C33" t="s" s="17">
         <v>54</v>
       </c>
-      <c r="D33" t="s" s="15">
+      <c r="D33" t="s" s="17">
         <v>55</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" ht="33.45" customHeight="1">
-      <c r="A34" s="10">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="13"/>
-      <c r="D34" t="s" s="12">
+      <c r="B34" s="19"/>
+      <c r="C34" s="15"/>
+      <c r="D34" t="s" s="14">
         <v>45</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" ht="48.45" customHeight="1">
-      <c r="A35" s="10">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" t="s" s="15">
+      <c r="B35" s="20"/>
+      <c r="C35" t="s" s="17">
         <v>56</v>
       </c>
-      <c r="D35" t="s" s="15">
+      <c r="D35" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" ht="48.45" customHeight="1">
-      <c r="A36" s="10">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" t="s" s="12">
+      <c r="B36" s="19"/>
+      <c r="C36" t="s" s="14">
         <v>57</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" t="s" s="14">
         <v>58</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" ht="33.45" customHeight="1">
-      <c r="A37" s="10">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="16"/>
-      <c r="D37" t="s" s="15">
+      <c r="B37" s="20"/>
+      <c r="C37" s="18"/>
+      <c r="D37" t="s" s="17">
         <v>45</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" ht="48.45" customHeight="1">
-      <c r="A38" s="10">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" t="s" s="12">
+      <c r="B38" s="19"/>
+      <c r="C38" t="s" s="14">
         <v>59</v>
       </c>
-      <c r="D38" t="s" s="12">
+      <c r="D38" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" ht="78.45" customHeight="1">
-      <c r="A39" s="10">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" t="s" s="15">
+      <c r="B39" s="20"/>
+      <c r="C39" t="s" s="17">
         <v>60</v>
       </c>
-      <c r="D39" t="s" s="15">
+      <c r="D39" t="s" s="17">
         <v>61</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" ht="63.45" customHeight="1">
-      <c r="A40" s="10">
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" ht="78.45" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s" s="17">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s" s="17">
+        <v>64</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" ht="63.45" customHeight="1">
+      <c r="A41" s="12">
         <v>38</v>
       </c>
-      <c r="B40" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s" s="12">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" ht="48.45" customHeight="1">
-      <c r="A41" s="10">
+      <c r="B41" t="s" s="13">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s" s="14">
+        <v>67</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" ht="48.45" customHeight="1">
+      <c r="A42" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" t="s" s="15">
-        <v>65</v>
-      </c>
-      <c r="D41" t="s" s="15">
-        <v>66</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" ht="48.45" customHeight="1">
-      <c r="A42" s="10">
+      <c r="B42" s="20"/>
+      <c r="C42" t="s" s="17">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s" s="17">
+        <v>69</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" ht="48.45" customHeight="1">
+      <c r="A43" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" t="s" s="12">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" ht="48.45" customHeight="1">
-      <c r="A43" s="10">
+      <c r="B43" s="19"/>
+      <c r="C43" t="s" s="14">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" ht="48.45" customHeight="1">
+      <c r="A44" s="12">
         <v>41</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" t="s" s="15">
-        <v>69</v>
-      </c>
-      <c r="D43" t="s" s="15">
-        <v>70</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" ht="48.45" customHeight="1">
-      <c r="A44" s="10">
+      <c r="B44" s="20"/>
+      <c r="C44" t="s" s="17">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s" s="17">
+        <v>73</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" ht="48.45" customHeight="1">
+      <c r="A45" s="12">
         <v>42</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="D44" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" ht="48.45" customHeight="1">
-      <c r="A45" s="10">
+      <c r="B45" s="19"/>
+      <c r="C45" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="D45" t="s" s="14">
+        <v>75</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" ht="48.45" customHeight="1">
+      <c r="A46" s="12">
         <v>43</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" t="s" s="15">
-        <v>73</v>
-      </c>
-      <c r="D45" t="s" s="15">
-        <v>74</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" ht="48.45" customHeight="1">
-      <c r="A46" s="10">
+      <c r="B46" s="20"/>
+      <c r="C46" t="s" s="17">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s" s="17">
+        <v>77</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" ht="48.45" customHeight="1">
+      <c r="A47" s="12">
         <v>44</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" t="s" s="12">
-        <v>75</v>
-      </c>
-      <c r="D46" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" ht="63.45" customHeight="1">
-      <c r="A47" s="10">
+      <c r="B47" s="19"/>
+      <c r="C47" t="s" s="14">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s" s="14">
+        <v>79</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" ht="63.45" customHeight="1">
+      <c r="A48" s="12">
         <v>45</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" t="s" s="15">
-        <v>77</v>
-      </c>
-      <c r="D47" t="s" s="15">
-        <v>78</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" ht="63.45" customHeight="1">
-      <c r="A48" s="10">
+      <c r="B48" s="20"/>
+      <c r="C48" t="s" s="17">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s" s="17">
+        <v>81</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" ht="63.45" customHeight="1">
+      <c r="A49" s="12">
         <v>46</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" t="s" s="12">
-        <v>79</v>
-      </c>
-      <c r="D48" t="s" s="12">
-        <v>80</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" ht="63.45" customHeight="1">
-      <c r="A49" s="10">
+      <c r="B49" s="19"/>
+      <c r="C49" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" ht="63.45" customHeight="1">
+      <c r="A50" s="12">
         <v>47</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" t="s" s="15">
-        <v>81</v>
-      </c>
-      <c r="D49" t="s" s="15">
-        <v>82</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" ht="78.45" customHeight="1">
-      <c r="A50" s="10">
+      <c r="B50" s="20"/>
+      <c r="C50" t="s" s="17">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s" s="17">
+        <v>85</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" ht="78.45" customHeight="1">
+      <c r="A51" s="12">
         <v>48</v>
       </c>
-      <c r="B50" t="s" s="11">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s" s="12">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" ht="78.45" customHeight="1">
-      <c r="A51" s="10">
+      <c r="B51" t="s" s="13">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s" s="14">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s" s="14">
+        <v>88</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" ht="78.45" customHeight="1">
+      <c r="A52" s="12">
         <v>49</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" t="s" s="15">
-        <v>86</v>
-      </c>
-      <c r="D51" t="s" s="15">
-        <v>85</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" ht="78.45" customHeight="1">
-      <c r="A52" s="10">
+      <c r="B52" s="20"/>
+      <c r="C52" t="s" s="17">
+        <v>89</v>
+      </c>
+      <c r="D52" t="s" s="17">
+        <v>88</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" ht="78.45" customHeight="1">
+      <c r="A53" s="12">
         <v>50</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" t="s" s="12">
-        <v>87</v>
-      </c>
-      <c r="D52" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" ht="78.45" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="18"/>
-      <c r="C53" t="s" s="15">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s" s="15">
-        <v>88</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" ht="123.45" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="17"/>
-      <c r="C54" t="s" s="12">
+      <c r="B53" s="19"/>
+      <c r="C53" t="s" s="14">
         <v>90</v>
       </c>
-      <c r="D54" t="s" s="12">
+      <c r="D53" t="s" s="14">
         <v>91</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" ht="78.45" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="18"/>
-      <c r="C55" t="s" s="15">
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" ht="78.45" customHeight="1">
+      <c r="A54" s="21"/>
+      <c r="B54" s="20"/>
+      <c r="C54" t="s" s="17">
         <v>92</v>
       </c>
-      <c r="D55" t="s" s="15">
+      <c r="D54" t="s" s="17">
+        <v>91</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" ht="123.45" customHeight="1">
+      <c r="A55" s="21"/>
+      <c r="B55" s="19"/>
+      <c r="C55" t="s" s="14">
         <v>93</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="D55" t="s" s="14">
+        <v>94</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" ht="78.45" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="17"/>
-      <c r="C56" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="D56" t="s" s="12">
+      <c r="A56" s="21"/>
+      <c r="B56" s="20"/>
+      <c r="C56" t="s" s="17">
         <v>95</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" ht="63.45" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="18"/>
-      <c r="C57" t="s" s="15">
+      <c r="D56" t="s" s="17">
         <v>96</v>
       </c>
-      <c r="D57" t="s" s="15">
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" ht="78.45" customHeight="1">
+      <c r="A57" s="21"/>
+      <c r="B57" s="19"/>
+      <c r="C57" t="s" s="14">
         <v>97</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="D57" t="s" s="14">
+        <v>98</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
     </row>
     <row r="58" ht="63.45" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="17"/>
-      <c r="C58" t="s" s="12">
-        <v>98</v>
-      </c>
-      <c r="D58" t="s" s="12">
-        <v>97</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-    </row>
-    <row r="59" ht="18.45" customHeight="1">
-      <c r="A59" s="19"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="20"/>
+      <c r="C58" t="s" s="17">
+        <v>99</v>
+      </c>
+      <c r="D58" t="s" s="17">
+        <v>100</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" ht="63.45" customHeight="1">
+      <c r="A59" s="21"/>
+      <c r="B59" s="19"/>
+      <c r="C59" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="D59" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" ht="42.95" customHeight="1">
+      <c r="A60" s="21"/>
+      <c r="B60" t="s" s="16">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s" s="17">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s" s="17">
+        <v>104</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" ht="57.95" customHeight="1">
+      <c r="A61" s="21"/>
+      <c r="B61" t="s" s="16">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s" s="17">
+        <v>106</v>
+      </c>
+      <c r="D61" t="s" s="17">
+        <v>107</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" ht="57.95" customHeight="1">
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
+      <c r="C62" t="s" s="17">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" ht="42.95" customHeight="1">
+      <c r="A63" s="21"/>
+      <c r="B63" t="s" s="16">
+        <v>110</v>
+      </c>
+      <c r="C63" t="s" s="17">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s" s="17">
+        <v>112</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" ht="87.95" customHeight="1">
+      <c r="A64" s="21"/>
+      <c r="B64" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="C64" t="s" s="17">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s" s="17">
+        <v>115</v>
+      </c>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" ht="57.95" customHeight="1">
+      <c r="A65" s="21"/>
+      <c r="B65" t="s" s="16">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s" s="17">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s" s="17">
+        <v>104</v>
+      </c>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" ht="57.95" customHeight="1">
+      <c r="A66" s="21"/>
+      <c r="B66" s="20"/>
+      <c r="C66" t="s" s="17">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s" s="17">
+        <v>119</v>
+      </c>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" ht="57.95" customHeight="1">
+      <c r="A67" s="21"/>
+      <c r="B67" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s" s="17">
+        <v>120</v>
+      </c>
+      <c r="D67" t="s" s="17">
+        <v>121</v>
+      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" ht="60" customHeight="1">
+      <c r="A68" s="21"/>
+      <c r="B68" s="20"/>
+      <c r="C68" t="s" s="17">
+        <v>122</v>
+      </c>
+      <c r="D68" t="s" s="17">
+        <v>123</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" ht="77" customHeight="1">
+      <c r="A69" s="21"/>
+      <c r="B69" t="s" s="16">
+        <v>124</v>
+      </c>
+      <c r="C69" t="s" s="17">
+        <v>125</v>
+      </c>
+      <c r="D69" t="s" s="17">
+        <v>126</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" ht="79" customHeight="1">
+      <c r="A70" s="21"/>
+      <c r="B70" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="C70" t="s" s="17">
+        <v>128</v>
+      </c>
+      <c r="D70" t="s" s="17">
+        <v>129</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" s="21"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" s="21"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" ht="15" customHeight="1">
+      <c r="A73" s="21"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="http://localhost/d.iblog2/23index.html"/>
+    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="http://localhost/d.iblog2/23index.html にアクセス"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/d.iblog2/単体テスト.xlsx
+++ b/d.iblog2/単体テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>表1</t>
   </si>
@@ -83,123 +83,126 @@
     <t>・名前（姓）の項目のラベルは表示されている</t>
   </si>
   <si>
-    <t>・入力BOXがあることを目視で確認</t>
+    <t>・入力BOXが項目の隣にあることが目視で確認できる</t>
   </si>
   <si>
     <t>名前（姓）の項目の入力BOXに文字を入力をする</t>
   </si>
   <si>
+    <t>・正しくBOX内に文字を入力することができるか確認</t>
+  </si>
+  <si>
+    <t>名前（名）の項目を目視で確認</t>
+  </si>
+  <si>
+    <t>・名前（名）の項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>名前（名）の項目の入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>カナ（姓）の項目を目視で確認</t>
+  </si>
+  <si>
+    <t>・カナ（姓）の項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>カナ（姓）の項目の入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>カナ（名）の項目の有無を目視で確認する</t>
+  </si>
+  <si>
+    <t>・カナ（名）の項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>カナ（名）の項目の入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>メールアドレスの項目の有無を目視で確認する</t>
+  </si>
+  <si>
+    <t>・メールアドレスの項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>・入力BOXが項目の隣にあることを目視で確認できる</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>パスワードの項目の有無目視で確認する</t>
+  </si>
+  <si>
+    <t>・パスワードの項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>パスワードの入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>・文字を入力したら黒点で表示されることを確認できる</t>
+  </si>
+  <si>
+    <t>性別の項目の有無を目視で確認する</t>
+  </si>
+  <si>
+    <t>・性別の項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>・男、女の選択肢が横並びで表示してあり、男が選択されている状態になっていることが確認できる</t>
+  </si>
+  <si>
+    <t>性別項目の女を選択する</t>
+  </si>
+  <si>
+    <t>・青丸が女性の前に移動したことが確認できる</t>
+  </si>
+  <si>
+    <t>郵便番号の項目の有無を目視で確認</t>
+  </si>
+  <si>
+    <t>・郵便番号という項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>郵便番号の入力BOXに文字を入力する</t>
+  </si>
+  <si>
+    <t>都道府県の項目の有無を目視で確認</t>
+  </si>
+  <si>
+    <t>・都道府県という項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>・都道府県と表示されたBOXが項目の隣にあることが確認できる</t>
+  </si>
+  <si>
+    <t>BOXの左の下矢印をクリックする</t>
+  </si>
+  <si>
+    <t>・４７都道府県全てが選択肢として表示されることが確認できる</t>
+  </si>
+  <si>
+    <t>どこかの都道府県をクリックして選択してみる</t>
+  </si>
+  <si>
+    <t>・選択した都道府県がBOXに表示されたことが確認できる</t>
+  </si>
+  <si>
+    <t>住所（市町村）の項目の有無を目視で確認</t>
+  </si>
+  <si>
+    <t>・住所（市町村）という項目があることが確認できる</t>
+  </si>
+  <si>
+    <t>・入力BOXが項目の隣にあることを目視で確認</t>
+  </si>
+  <si>
+    <t>住所（市町村）の入力BOXに文字を入力する</t>
+  </si>
+  <si>
     <t>・正しくBOX内に文字を入力することが確認できる</t>
   </si>
   <si>
-    <t>名前（名）の項目を目視で確認</t>
-  </si>
-  <si>
-    <t>・名前（名）の項目があることが確認できる</t>
-  </si>
-  <si>
-    <t>・入力BOXがあることを目視で確認できる</t>
-  </si>
-  <si>
-    <t>名前（名）の項目の入力BOXに文字を入力する</t>
-  </si>
-  <si>
-    <t>カナ（姓）の項目を目視で確認</t>
-  </si>
-  <si>
-    <t>・カナ（姓）の項目があることが確認できる</t>
-  </si>
-  <si>
-    <t>カナ（姓）の項目の入力BOXに文字を入力する</t>
-  </si>
-  <si>
-    <t>カナ（名）の項目の有無を目視で確認する</t>
-  </si>
-  <si>
-    <t>・カナ（名）の項目があることが確認できる</t>
-  </si>
-  <si>
-    <t>カナ（名）の項目の入力BOXに文字を入力する</t>
-  </si>
-  <si>
-    <t>メールアドレスの項目の有無を目視で確認する</t>
-  </si>
-  <si>
-    <t>・メールアドレスの項目があることが確認できる</t>
-  </si>
-  <si>
-    <t>メールアドレスの入力BOXに文字を入力する</t>
-  </si>
-  <si>
-    <t>パスワードの項目の有無目視で確認する</t>
-  </si>
-  <si>
-    <t>・パスワードの項目があることが確認できる</t>
-  </si>
-  <si>
-    <t>パスワードの入力BOXに文字を入力する</t>
-  </si>
-  <si>
-    <t>・文字を入力したら黒点で表示されることを確認</t>
-  </si>
-  <si>
-    <t>性別の項目の有無を目視で確認する</t>
-  </si>
-  <si>
-    <t>・性別の項目があることが確認できる</t>
-  </si>
-  <si>
-    <t>・男、女の選択肢があり、男が選択されている状態になっている</t>
-  </si>
-  <si>
-    <t>性別項目の女を選択する</t>
-  </si>
-  <si>
-    <t>・赤丸が女性の前に移動したことが確認できる</t>
-  </si>
-  <si>
-    <t>郵便番号の項目の有無を目視で確認</t>
-  </si>
-  <si>
-    <t>・郵便番号という項目があることが確認できる</t>
-  </si>
-  <si>
-    <t>・入力BOXがあることが確認できる</t>
-  </si>
-  <si>
-    <t>郵便番号の入力BOXに文字を入力する</t>
-  </si>
-  <si>
-    <t>都道府県の項目の有無を目視で確認</t>
-  </si>
-  <si>
-    <t>・都道府県という項目があることが確認できる</t>
-  </si>
-  <si>
-    <t>・都道府県と表示されたBOXがあることが確認できる</t>
-  </si>
-  <si>
-    <t>BOXの左の下矢印をクリックする</t>
-  </si>
-  <si>
-    <t>・４７都道府県全てが選択肢として表示されることが確認できる</t>
-  </si>
-  <si>
-    <t>どこかの都道府県をクリックして選択してみる</t>
-  </si>
-  <si>
-    <t>・選択した都道府県がBOXに表示されたことが確認できる</t>
-  </si>
-  <si>
-    <t>住所（市町村）の項目の有無を目視で確認</t>
-  </si>
-  <si>
-    <t>・住所（市町村）という項目があることが確認できる</t>
-  </si>
-  <si>
-    <t>住所（市町村）の入力BOXに文字を入力する</t>
-  </si>
-  <si>
     <t>住所（番地）の項目の有無を目視で確認</t>
   </si>
   <si>
@@ -333,6 +336,57 @@
   </si>
   <si>
     <t>住所（番地）の入力BOXに半角英語で入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）の入力BOXに漢字またはひらがな１０文字以上で入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>・項目の下に赤字で「１０文字以内で入力してください」と表示されていることを確認</t>
+  </si>
+  <si>
+    <t>名前（名）の入力BOXに漢字またはひらがな１０文字以上入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）の入力BOXにカタカナ１０文字以上で入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力BOXに半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）を１００文字以上入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>・項目の下に赤字で「１００文字以内で入力してください」と表示されていることを確認</t>
+  </si>
+  <si>
+    <t>パスワードの項目に半角英数字で１０文字以上入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>郵便番号の入力BOXに半角数字７文字以上で入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>・項目の下に赤字で「７文字以内で入力してください」と表示されていることを確認</t>
+  </si>
+  <si>
+    <t>住所（市町村）の入力BOXに半角英語以外で１０文字以上入力する</t>
+  </si>
+  <si>
+    <t>住所（番地）の入力BOXに半角英語以外で１０文字以上入力する</t>
+  </si>
+  <si>
+    <t>入力チェック（正しく入力）</t>
+  </si>
+  <si>
+    <t>名前（姓）のBOXに漢字、ひらがなで入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>・項目の下にエラーメッセージが表示されていないことが確認できる</t>
+  </si>
+  <si>
+    <t>名前（名）のBOXに漢字、ひらがなで入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）のBOXにカタカナで入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）のBOXにカタカナ</t>
   </si>
   <si>
     <t>画面遷移（登録画面〜確認画面）</t>
@@ -423,8 +477,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="m/d"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -481,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -661,13 +716,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -704,6 +789,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -716,6 +804,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -725,6 +816,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -732,6 +826,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1819,7 +1919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1828,8 +1928,10 @@
     <col min="1" max="1" width="4.8125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.8125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.6016" style="1" customWidth="1"/>
-    <col min="4" max="8" width="19.6016" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.6016" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="9" width="19.6016" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -1842,7 +1944,8 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" ht="18.7" customHeight="1">
       <c r="A2" t="s" s="5">
@@ -1866,9 +1969,10 @@
       <c r="G2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="7">
+      <c r="H2" t="s" s="6">
         <v>8</v>
       </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" ht="48.7" customHeight="1">
       <c r="A3" s="8">
@@ -1884,1079 +1988,1511 @@
         <v>11</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12">
+        <v>45185</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" ht="79.6" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B4" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="14">
+      <c r="C4" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="14">
+      <c r="D4" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17">
+        <v>45185</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" ht="48.45" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="16">
+      <c r="B5" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="17">
+      <c r="C5" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="17">
+      <c r="D5" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" ht="33.45" customHeight="1">
-      <c r="A6" s="12">
+      <c r="E5" s="20"/>
+      <c r="F5" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
-      <c r="D6" t="s" s="14">
+      <c r="B6" s="22"/>
+      <c r="C6" s="16"/>
+      <c r="D6" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" ht="48.45" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" t="s" s="17">
+      <c r="B7" s="23"/>
+      <c r="C7" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="D7" t="s" s="17">
+      <c r="D7" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" ht="48.45" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" t="s" s="14">
+      <c r="B8" s="22"/>
+      <c r="C8" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="D8" t="s" s="14">
+      <c r="D8" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" ht="48.45" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="18"/>
-      <c r="D9" t="s" s="17">
+      <c r="B9" s="23"/>
+      <c r="C9" s="20"/>
+      <c r="D9" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" ht="48.45" customHeight="1">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" ht="48.45" customHeight="1">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" t="s" s="14">
+      <c r="D10" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" ht="48.45" customHeight="1">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" t="s" s="19">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="14">
+      <c r="D11" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" ht="48.45" customHeight="1">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="16"/>
+      <c r="D12" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" ht="48.45" customHeight="1">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" ht="48.45" customHeight="1">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" t="s" s="17">
+      <c r="E13" s="20"/>
+      <c r="F13" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" ht="48.45" customHeight="1">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s" s="15">
+        <v>28</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" ht="48.45" customHeight="1">
+      <c r="A15" s="13">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" ht="48.45" customHeight="1">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" ht="48.45" customHeight="1">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" ht="48.45" customHeight="1">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="16"/>
+      <c r="D18" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" ht="48.45" customHeight="1">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" t="s" s="19">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" ht="48.45" customHeight="1">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" ht="48.45" customHeight="1">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" ht="48.45" customHeight="1">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" ht="48.45" customHeight="1">
+      <c r="A23" s="13">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" t="s" s="19">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s" s="19">
+        <v>39</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" ht="72.95" customHeight="1">
+      <c r="A24" s="13">
+        <v>22</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="16"/>
+      <c r="D24" t="s" s="15">
+        <v>40</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" ht="48.45" customHeight="1">
+      <c r="A25" s="13">
+        <v>23</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="12">
+        <v>45185</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" ht="48.45" customHeight="1">
+      <c r="A26" s="13">
+        <v>24</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" t="s" s="15">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s" s="15">
+        <v>44</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17">
+        <v>45185</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" ht="45" customHeight="1">
+      <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="D11" t="s" s="17">
+      <c r="B27" s="23"/>
+      <c r="C27" s="20"/>
+      <c r="D27" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" ht="48.45" customHeight="1">
+      <c r="A28" s="13">
         <v>26</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" ht="48.45" customHeight="1">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="15"/>
-      <c r="D12" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" ht="48.45" customHeight="1">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" t="s" s="17">
+      <c r="B28" s="22"/>
+      <c r="C28" t="s" s="15">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" ht="48.45" customHeight="1">
+      <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="D13" t="s" s="17">
-        <v>20</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" ht="48.45" customHeight="1">
-      <c r="A14" s="12">
-        <v>12</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" t="s" s="14">
+      <c r="B29" s="23"/>
+      <c r="C29" t="s" s="19">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" ht="48.45" customHeight="1">
+      <c r="A30" s="13">
         <v>28</v>
       </c>
-      <c r="D14" t="s" s="14">
+      <c r="B30" s="22"/>
+      <c r="C30" s="16"/>
+      <c r="D30" t="s" s="15">
+        <v>48</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" ht="63.45" customHeight="1">
+      <c r="A31" s="13">
         <v>29</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" ht="48.45" customHeight="1">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
-      <c r="D15" t="s" s="17">
-        <v>23</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" ht="48.45" customHeight="1">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" t="s" s="14">
+      <c r="B31" s="23"/>
+      <c r="C31" t="s" s="19">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s" s="19">
+        <v>50</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" ht="63.45" customHeight="1">
+      <c r="A32" s="13">
         <v>30</v>
       </c>
-      <c r="D16" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" ht="48.45" customHeight="1">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" t="s" s="17">
+      <c r="B32" s="22"/>
+      <c r="C32" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s" s="15">
+        <v>52</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" ht="48.45" customHeight="1">
+      <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="D17" t="s" s="17">
+      <c r="B33" s="23"/>
+      <c r="C33" t="s" s="19">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" ht="33.45" customHeight="1">
+      <c r="A34" s="13">
         <v>32</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" ht="48.45" customHeight="1">
-      <c r="A18" s="12">
-        <v>16</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="15"/>
-      <c r="D18" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" ht="48.45" customHeight="1">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" t="s" s="17">
+      <c r="B34" s="22"/>
+      <c r="C34" s="16"/>
+      <c r="D34" t="s" s="15">
+        <v>55</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" ht="48.45" customHeight="1">
+      <c r="A35" s="13">
         <v>33</v>
       </c>
-      <c r="D19" t="s" s="17">
-        <v>20</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" ht="48.45" customHeight="1">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" t="s" s="14">
+      <c r="B35" s="23"/>
+      <c r="C35" t="s" s="19">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s" s="19">
+        <v>57</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" ht="48.45" customHeight="1">
+      <c r="A36" s="13">
         <v>34</v>
       </c>
-      <c r="D20" t="s" s="14">
+      <c r="B36" s="22"/>
+      <c r="C36" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s" s="15">
+        <v>59</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" ht="45" customHeight="1">
+      <c r="A37" s="13">
         <v>35</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" ht="48.45" customHeight="1">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
-      <c r="D21" t="s" s="17">
-        <v>23</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" ht="48.45" customHeight="1">
-      <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" t="s" s="14">
+      <c r="B37" s="23"/>
+      <c r="C37" s="20"/>
+      <c r="D37" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" ht="48.45" customHeight="1">
+      <c r="A38" s="13">
         <v>36</v>
       </c>
-      <c r="D22" t="s" s="14">
+      <c r="B38" s="22"/>
+      <c r="C38" t="s" s="15">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s" s="15">
+        <v>57</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" ht="78.45" customHeight="1">
+      <c r="A39" s="13">
         <v>37</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" ht="48.45" customHeight="1">
-      <c r="A23" s="12">
-        <v>21</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" t="s" s="17">
+      <c r="B39" s="23"/>
+      <c r="C39" t="s" s="19">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s" s="19">
+        <v>62</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="12">
+        <v>45185</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" ht="78.45" customHeight="1">
+      <c r="A40" s="24"/>
+      <c r="B40" t="s" s="18">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s" s="19">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s" s="19">
+        <v>65</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="25">
+        <v>45185</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" ht="63.45" customHeight="1">
+      <c r="A41" s="13">
         <v>38</v>
       </c>
-      <c r="D23" t="s" s="17">
+      <c r="B41" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s" s="15">
+        <v>67</v>
+      </c>
+      <c r="D41" t="s" s="15">
+        <v>68</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17">
+        <v>45185</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" ht="48.45" customHeight="1">
+      <c r="A42" s="13">
         <v>39</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" ht="63.45" customHeight="1">
-      <c r="A24" s="12">
-        <v>22</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="15"/>
-      <c r="D24" t="s" s="14">
+      <c r="B42" s="23"/>
+      <c r="C42" t="s" s="19">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s" s="19">
+        <v>70</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" ht="48.45" customHeight="1">
+      <c r="A43" s="13">
         <v>40</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" ht="48.45" customHeight="1">
-      <c r="A25" s="12">
-        <v>23</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" t="s" s="17">
+      <c r="B43" s="22"/>
+      <c r="C43" t="s" s="15">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s" s="15">
+        <v>72</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" ht="48.45" customHeight="1">
+      <c r="A44" s="13">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="17">
+      <c r="B44" s="23"/>
+      <c r="C44" t="s" s="19">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s" s="19">
+        <v>74</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" ht="48.45" customHeight="1">
+      <c r="A45" s="13">
         <v>42</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" ht="48.45" customHeight="1">
-      <c r="A26" s="12">
-        <v>24</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" t="s" s="14">
+      <c r="B45" s="22"/>
+      <c r="C45" t="s" s="15">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s" s="15">
+        <v>76</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" ht="48.45" customHeight="1">
+      <c r="A46" s="13">
         <v>43</v>
       </c>
-      <c r="D26" t="s" s="14">
+      <c r="B46" s="23"/>
+      <c r="C46" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s" s="19">
+        <v>78</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" ht="48.45" customHeight="1">
+      <c r="A47" s="13">
         <v>44</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" ht="33.45" customHeight="1">
-      <c r="A27" s="12">
-        <v>25</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="18"/>
-      <c r="D27" t="s" s="17">
+      <c r="B47" s="22"/>
+      <c r="C47" t="s" s="15">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s" s="15">
+        <v>80</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" ht="63.45" customHeight="1">
+      <c r="A48" s="13">
         <v>45</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" ht="48.45" customHeight="1">
-      <c r="A28" s="12">
-        <v>26</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" t="s" s="14">
+      <c r="B48" s="23"/>
+      <c r="C48" t="s" s="19">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s" s="19">
+        <v>82</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" ht="63.45" customHeight="1">
+      <c r="A49" s="13">
         <v>46</v>
       </c>
-      <c r="D28" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" ht="48.45" customHeight="1">
-      <c r="A29" s="12">
-        <v>27</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" t="s" s="17">
+      <c r="B49" s="22"/>
+      <c r="C49" t="s" s="15">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s" s="15">
+        <v>84</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" ht="63.45" customHeight="1">
+      <c r="A50" s="13">
         <v>47</v>
       </c>
-      <c r="D29" t="s" s="17">
+      <c r="B50" s="23"/>
+      <c r="C50" t="s" s="19">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s" s="19">
+        <v>86</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21">
+        <v>45185</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" ht="78.45" customHeight="1">
+      <c r="A51" s="13">
         <v>48</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" ht="48.45" customHeight="1">
-      <c r="A30" s="12">
-        <v>28</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="15"/>
-      <c r="D30" t="s" s="14">
+      <c r="B51" t="s" s="14">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s" s="15">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s" s="15">
+        <v>89</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="12">
+        <v>45185</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" ht="78.45" customHeight="1">
+      <c r="A52" s="13">
         <v>49</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" ht="63.45" customHeight="1">
-      <c r="A31" s="12">
-        <v>29</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" t="s" s="17">
+      <c r="B52" s="23"/>
+      <c r="C52" t="s" s="19">
+        <v>90</v>
+      </c>
+      <c r="D52" t="s" s="19">
+        <v>89</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" ht="78.45" customHeight="1">
+      <c r="A53" s="13">
         <v>50</v>
       </c>
-      <c r="D31" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" ht="63.45" customHeight="1">
-      <c r="A32" s="12">
-        <v>30</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" t="s" s="14">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s" s="14">
-        <v>53</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" ht="48.45" customHeight="1">
-      <c r="A33" s="12">
-        <v>31</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" t="s" s="17">
-        <v>54</v>
-      </c>
-      <c r="D33" t="s" s="17">
-        <v>55</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" ht="33.45" customHeight="1">
-      <c r="A34" s="12">
-        <v>32</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="15"/>
-      <c r="D34" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" ht="48.45" customHeight="1">
-      <c r="A35" s="12">
-        <v>33</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s" s="17">
-        <v>20</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" ht="48.45" customHeight="1">
-      <c r="A36" s="12">
-        <v>34</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" t="s" s="14">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s" s="14">
-        <v>58</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" ht="33.45" customHeight="1">
-      <c r="A37" s="12">
-        <v>35</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" t="s" s="17">
-        <v>45</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" ht="48.45" customHeight="1">
-      <c r="A38" s="12">
-        <v>36</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="D38" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" ht="78.45" customHeight="1">
-      <c r="A39" s="12">
-        <v>37</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" t="s" s="17">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" ht="78.45" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" t="s" s="16">
-        <v>62</v>
-      </c>
-      <c r="C40" t="s" s="17">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s" s="17">
-        <v>64</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" ht="63.45" customHeight="1">
-      <c r="A41" s="12">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s" s="14">
-        <v>67</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" ht="48.45" customHeight="1">
-      <c r="A42" s="12">
-        <v>39</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" t="s" s="17">
-        <v>68</v>
-      </c>
-      <c r="D42" t="s" s="17">
-        <v>69</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" ht="48.45" customHeight="1">
-      <c r="A43" s="12">
-        <v>40</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" t="s" s="14">
-        <v>70</v>
-      </c>
-      <c r="D43" t="s" s="14">
-        <v>71</v>
-      </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" ht="48.45" customHeight="1">
-      <c r="A44" s="12">
-        <v>41</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" t="s" s="17">
-        <v>72</v>
-      </c>
-      <c r="D44" t="s" s="17">
-        <v>73</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" ht="48.45" customHeight="1">
-      <c r="A45" s="12">
-        <v>42</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" t="s" s="14">
-        <v>74</v>
-      </c>
-      <c r="D45" t="s" s="14">
-        <v>75</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" ht="48.45" customHeight="1">
-      <c r="A46" s="12">
-        <v>43</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" t="s" s="17">
-        <v>76</v>
-      </c>
-      <c r="D46" t="s" s="17">
-        <v>77</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" ht="48.45" customHeight="1">
-      <c r="A47" s="12">
-        <v>44</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" t="s" s="14">
-        <v>78</v>
-      </c>
-      <c r="D47" t="s" s="14">
-        <v>79</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" ht="63.45" customHeight="1">
-      <c r="A48" s="12">
-        <v>45</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" t="s" s="17">
-        <v>80</v>
-      </c>
-      <c r="D48" t="s" s="17">
-        <v>81</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" ht="63.45" customHeight="1">
-      <c r="A49" s="12">
-        <v>46</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" t="s" s="14">
-        <v>82</v>
-      </c>
-      <c r="D49" t="s" s="14">
-        <v>83</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-    </row>
-    <row r="50" ht="63.45" customHeight="1">
-      <c r="A50" s="12">
-        <v>47</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" t="s" s="17">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" ht="78.45" customHeight="1">
-      <c r="A51" s="12">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s" s="13">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s" s="14">
-        <v>87</v>
-      </c>
-      <c r="D51" t="s" s="14">
-        <v>88</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" ht="78.45" customHeight="1">
-      <c r="A52" s="12">
-        <v>49</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" t="s" s="17">
-        <v>89</v>
-      </c>
-      <c r="D52" t="s" s="17">
-        <v>88</v>
-      </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" ht="78.45" customHeight="1">
-      <c r="A53" s="12">
-        <v>50</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" t="s" s="14">
-        <v>90</v>
-      </c>
-      <c r="D53" t="s" s="14">
+      <c r="B53" s="22"/>
+      <c r="C53" t="s" s="15">
         <v>91</v>
       </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="D53" t="s" s="15">
+        <v>92</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" ht="78.45" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="20"/>
-      <c r="C54" t="s" s="17">
+      <c r="A54" s="24"/>
+      <c r="B54" s="23"/>
+      <c r="C54" t="s" s="19">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s" s="19">
         <v>92</v>
       </c>
-      <c r="D54" t="s" s="17">
-        <v>91</v>
-      </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
     </row>
     <row r="55" ht="123.45" customHeight="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="19"/>
-      <c r="C55" t="s" s="14">
-        <v>93</v>
-      </c>
-      <c r="D55" t="s" s="14">
+      <c r="A55" s="24"/>
+      <c r="B55" s="22"/>
+      <c r="C55" t="s" s="15">
         <v>94</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="D55" t="s" s="15">
+        <v>95</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" ht="78.45" customHeight="1">
-      <c r="A56" s="21"/>
-      <c r="B56" s="20"/>
-      <c r="C56" t="s" s="17">
-        <v>95</v>
-      </c>
-      <c r="D56" t="s" s="17">
+      <c r="A56" s="24"/>
+      <c r="B56" s="23"/>
+      <c r="C56" t="s" s="19">
         <v>96</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="D56" t="s" s="19">
+        <v>97</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" ht="78.45" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="19"/>
-      <c r="C57" t="s" s="14">
-        <v>97</v>
-      </c>
-      <c r="D57" t="s" s="14">
+      <c r="A57" s="24"/>
+      <c r="B57" s="22"/>
+      <c r="C57" t="s" s="15">
         <v>98</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="D57" t="s" s="15">
+        <v>99</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" ht="63.45" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="20"/>
-      <c r="C58" t="s" s="17">
-        <v>99</v>
-      </c>
-      <c r="D58" t="s" s="17">
+      <c r="A58" s="24"/>
+      <c r="B58" s="23"/>
+      <c r="C58" t="s" s="19">
         <v>100</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="D58" t="s" s="19">
+        <v>101</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" ht="63.45" customHeight="1">
-      <c r="A59" s="21"/>
-      <c r="B59" s="19"/>
-      <c r="C59" t="s" s="14">
+      <c r="A59" s="24"/>
+      <c r="B59" s="22"/>
+      <c r="C59" t="s" s="15">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s" s="15">
         <v>101</v>
       </c>
-      <c r="D59" t="s" s="14">
-        <v>100</v>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-    </row>
-    <row r="60" ht="42.95" customHeight="1">
-      <c r="A60" s="21"/>
-      <c r="B60" t="s" s="16">
-        <v>102</v>
-      </c>
-      <c r="C60" t="s" s="17">
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" ht="90" customHeight="1">
+      <c r="A60" s="24"/>
+      <c r="B60" s="22"/>
+      <c r="C60" t="s" s="15">
         <v>103</v>
       </c>
-      <c r="D60" t="s" s="17">
+      <c r="D60" t="s" s="15">
         <v>104</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" ht="57.95" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" t="s" s="16">
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="61" ht="90" customHeight="1">
+      <c r="A61" s="24"/>
+      <c r="B61" s="22"/>
+      <c r="C61" t="s" s="15">
         <v>105</v>
       </c>
-      <c r="C61" t="s" s="17">
+      <c r="D61" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" ht="75" customHeight="1">
+      <c r="A62" s="24"/>
+      <c r="B62" s="22"/>
+      <c r="C62" t="s" s="15">
         <v>106</v>
       </c>
-      <c r="D61" t="s" s="17">
+      <c r="D62" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" ht="75" customHeight="1">
+      <c r="A63" s="24"/>
+      <c r="B63" s="22"/>
+      <c r="C63" t="s" s="15">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" ht="135" customHeight="1">
+      <c r="A64" s="24"/>
+      <c r="B64" s="22"/>
+      <c r="C64" t="s" s="15">
         <v>107</v>
       </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-    </row>
-    <row r="62" ht="57.95" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
-      <c r="C62" t="s" s="17">
+      <c r="D64" t="s" s="15">
         <v>108</v>
       </c>
-      <c r="D62" t="s" s="17">
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" ht="63.45" customHeight="1">
+      <c r="A65" s="24"/>
+      <c r="B65" s="22"/>
+      <c r="C65" t="s" s="15">
         <v>109</v>
       </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" ht="42.95" customHeight="1">
-      <c r="A63" s="21"/>
-      <c r="B63" t="s" s="16">
+      <c r="D65" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" ht="63.45" customHeight="1">
+      <c r="A66" s="24"/>
+      <c r="B66" s="22"/>
+      <c r="C66" t="s" s="15">
         <v>110</v>
       </c>
-      <c r="C63" t="s" s="17">
+      <c r="D66" t="s" s="15">
         <v>111</v>
       </c>
-      <c r="D63" t="s" s="17">
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" ht="63.45" customHeight="1">
+      <c r="A67" s="24"/>
+      <c r="B67" s="22"/>
+      <c r="C67" t="s" s="15">
         <v>112</v>
       </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" ht="87.95" customHeight="1">
-      <c r="A64" s="21"/>
-      <c r="B64" t="s" s="16">
+      <c r="D67" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" ht="63.45" customHeight="1">
+      <c r="A68" s="24"/>
+      <c r="B68" s="22"/>
+      <c r="C68" t="s" s="15">
         <v>113</v>
       </c>
-      <c r="C64" t="s" s="17">
+      <c r="D68" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" ht="63.45" customHeight="1">
+      <c r="A69" s="24"/>
+      <c r="B69" t="s" s="18">
         <v>114</v>
       </c>
-      <c r="D64" t="s" s="17">
+      <c r="C69" t="s" s="19">
         <v>115</v>
       </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" ht="57.95" customHeight="1">
-      <c r="A65" s="21"/>
-      <c r="B65" t="s" s="16">
+      <c r="D69" t="s" s="19">
         <v>116</v>
       </c>
-      <c r="C65" t="s" s="17">
+      <c r="E69" s="20"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="24"/>
+    </row>
+    <row r="70" ht="63.45" customHeight="1">
+      <c r="A70" s="24"/>
+      <c r="B70" s="22"/>
+      <c r="C70" t="s" s="19">
         <v>117</v>
       </c>
-      <c r="D65" t="s" s="17">
-        <v>104</v>
-      </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" ht="57.95" customHeight="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="20"/>
-      <c r="C66" t="s" s="17">
+      <c r="D70" t="s" s="19">
+        <v>116</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" ht="63.45" customHeight="1">
+      <c r="A71" s="24"/>
+      <c r="B71" s="22"/>
+      <c r="C71" t="s" s="19">
         <v>118</v>
       </c>
-      <c r="D66" t="s" s="17">
+      <c r="D71" t="s" s="19">
+        <v>116</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" ht="63.45" customHeight="1">
+      <c r="A72" s="24"/>
+      <c r="B72" s="22"/>
+      <c r="C72" t="s" s="19">
         <v>119</v>
       </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" ht="57.95" customHeight="1">
-      <c r="A67" s="21"/>
-      <c r="B67" t="s" s="16">
-        <v>113</v>
-      </c>
-      <c r="C67" t="s" s="17">
+      <c r="D72" t="s" s="19">
+        <v>116</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" ht="63.45" customHeight="1">
+      <c r="A73" s="24"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" ht="63.45" customHeight="1">
+      <c r="A74" s="24"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" ht="63.45" customHeight="1">
+      <c r="A75" s="24"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" ht="63.45" customHeight="1">
+      <c r="A76" s="24"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" ht="63.45" customHeight="1">
+      <c r="A77" s="24"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" ht="63.45" customHeight="1">
+      <c r="A78" s="24"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" ht="42.95" customHeight="1">
+      <c r="A79" s="24"/>
+      <c r="B79" t="s" s="18">
         <v>120</v>
       </c>
-      <c r="D67" t="s" s="17">
+      <c r="C79" t="s" s="19">
         <v>121</v>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" ht="60" customHeight="1">
-      <c r="A68" s="21"/>
-      <c r="B68" s="20"/>
-      <c r="C68" t="s" s="17">
+      <c r="D79" t="s" s="19">
         <v>122</v>
       </c>
-      <c r="D68" t="s" s="17">
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+    </row>
+    <row r="80" ht="57.95" customHeight="1">
+      <c r="A80" s="24"/>
+      <c r="B80" t="s" s="18">
         <v>123</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" ht="77" customHeight="1">
-      <c r="A69" s="21"/>
-      <c r="B69" t="s" s="16">
+      <c r="C80" t="s" s="19">
         <v>124</v>
       </c>
-      <c r="C69" t="s" s="17">
+      <c r="D80" t="s" s="19">
         <v>125</v>
       </c>
-      <c r="D69" t="s" s="17">
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+    </row>
+    <row r="81" ht="57.95" customHeight="1">
+      <c r="A81" s="24"/>
+      <c r="B81" s="23"/>
+      <c r="C81" t="s" s="19">
         <v>126</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-    </row>
-    <row r="70" ht="79" customHeight="1">
-      <c r="A70" s="21"/>
-      <c r="B70" t="s" s="16">
+      <c r="D81" t="s" s="19">
         <v>127</v>
       </c>
-      <c r="C70" t="s" s="17">
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" ht="42.95" customHeight="1">
+      <c r="A82" s="24"/>
+      <c r="B82" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="D70" t="s" s="17">
+      <c r="C82" t="s" s="19">
         <v>129</v>
       </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="21"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-    </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="21"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-    </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="21"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
+      <c r="D82" t="s" s="19">
+        <v>130</v>
+      </c>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+    </row>
+    <row r="83" ht="87.95" customHeight="1">
+      <c r="A83" s="24"/>
+      <c r="B83" t="s" s="18">
+        <v>131</v>
+      </c>
+      <c r="C83" t="s" s="19">
+        <v>132</v>
+      </c>
+      <c r="D83" t="s" s="19">
+        <v>133</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" ht="57.95" customHeight="1">
+      <c r="A84" s="24"/>
+      <c r="B84" t="s" s="18">
+        <v>134</v>
+      </c>
+      <c r="C84" t="s" s="19">
+        <v>135</v>
+      </c>
+      <c r="D84" t="s" s="19">
+        <v>122</v>
+      </c>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+    </row>
+    <row r="85" ht="57.95" customHeight="1">
+      <c r="A85" s="24"/>
+      <c r="B85" s="23"/>
+      <c r="C85" t="s" s="19">
+        <v>136</v>
+      </c>
+      <c r="D85" t="s" s="19">
+        <v>137</v>
+      </c>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" ht="57.95" customHeight="1">
+      <c r="A86" s="24"/>
+      <c r="B86" t="s" s="18">
+        <v>131</v>
+      </c>
+      <c r="C86" t="s" s="19">
+        <v>138</v>
+      </c>
+      <c r="D86" t="s" s="19">
+        <v>139</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+    </row>
+    <row r="87" ht="60" customHeight="1">
+      <c r="A87" s="24"/>
+      <c r="B87" s="23"/>
+      <c r="C87" t="s" s="19">
+        <v>140</v>
+      </c>
+      <c r="D87" t="s" s="19">
+        <v>141</v>
+      </c>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" ht="77" customHeight="1">
+      <c r="A88" s="24"/>
+      <c r="B88" t="s" s="18">
+        <v>142</v>
+      </c>
+      <c r="C88" t="s" s="19">
+        <v>143</v>
+      </c>
+      <c r="D88" t="s" s="19">
+        <v>144</v>
+      </c>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+    </row>
+    <row r="89" ht="79" customHeight="1">
+      <c r="A89" s="24"/>
+      <c r="B89" t="s" s="18">
+        <v>145</v>
+      </c>
+      <c r="C89" t="s" s="19">
+        <v>146</v>
+      </c>
+      <c r="D89" t="s" s="19">
+        <v>147</v>
+      </c>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" ht="15" customHeight="1">
+      <c r="A90" s="24"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+    </row>
+    <row r="91" ht="15" customHeight="1">
+      <c r="A91" s="24"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" ht="15" customHeight="1">
+      <c r="A92" s="24"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/d.iblog2/単体テスト.xlsx
+++ b/d.iblog2/単体テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>表1</t>
   </si>
@@ -386,7 +386,25 @@
     <t>カナ（姓）のBOXにカタカナで入力し、「確認する」をクリック</t>
   </si>
   <si>
-    <t>カナ（名）のBOXにカタカナ</t>
+    <t>カナ（名）のBOXにカタカナで入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>メールアドレスの入力BOXに半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）を１００文字以内で入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>パスワードの項目に半角英数字で１０文字以内入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>郵便番号の入力BOXに半角数字７文字以内で入力し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（都道府県）を選択し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>住所（市町村）の入力BOXに半角英語以外で１０文字以内入力する</t>
+  </si>
+  <si>
+    <t>住所（番地）の入力BOXに半角英語以外で１０文字以内入力する</t>
   </si>
   <si>
     <t>画面遷移（登録画面〜確認画面）</t>
@@ -831,7 +849,7 @@
     <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1919,7 +1937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2905,7 +2923,9 @@
         <v>89</v>
       </c>
       <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="F52" s="25">
+        <v>45241</v>
+      </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -2922,7 +2942,9 @@
         <v>92</v>
       </c>
       <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
+      <c r="F53" s="26">
+        <v>45241</v>
+      </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
@@ -2937,7 +2959,9 @@
         <v>92</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="F54" s="26">
+        <v>45241</v>
+      </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -2967,7 +2991,9 @@
         <v>97</v>
       </c>
       <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="F56" s="26">
+        <v>45241</v>
+      </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -2982,7 +3008,9 @@
         <v>99</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
+      <c r="F57" s="26">
+        <v>45241</v>
+      </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
@@ -2997,7 +3025,9 @@
         <v>101</v>
       </c>
       <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="F58" s="26">
+        <v>45241</v>
+      </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -3012,7 +3042,9 @@
         <v>101</v>
       </c>
       <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
+      <c r="F59" s="26">
+        <v>45241</v>
+      </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
@@ -3027,7 +3059,9 @@
         <v>104</v>
       </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
+      <c r="F60" s="26">
+        <v>45241</v>
+      </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
@@ -3042,7 +3076,9 @@
         <v>104</v>
       </c>
       <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
+      <c r="F61" s="26">
+        <v>45241</v>
+      </c>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
@@ -3057,7 +3093,9 @@
         <v>104</v>
       </c>
       <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
+      <c r="F62" s="26">
+        <v>45241</v>
+      </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
@@ -3072,7 +3110,9 @@
         <v>104</v>
       </c>
       <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
+      <c r="F63" s="26">
+        <v>45241</v>
+      </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
@@ -3102,7 +3142,9 @@
         <v>104</v>
       </c>
       <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="F65" s="26">
+        <v>45241</v>
+      </c>
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
@@ -3117,7 +3159,9 @@
         <v>111</v>
       </c>
       <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="F66" s="26">
+        <v>45241</v>
+      </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
@@ -3132,7 +3176,9 @@
         <v>104</v>
       </c>
       <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
+      <c r="F67" s="26">
+        <v>45241</v>
+      </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
@@ -3147,7 +3193,9 @@
         <v>104</v>
       </c>
       <c r="E68" s="16"/>
-      <c r="F68" s="26"/>
+      <c r="F68" s="26">
+        <v>45241</v>
+      </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
@@ -3164,7 +3212,9 @@
         <v>116</v>
       </c>
       <c r="E69" s="20"/>
-      <c r="F69" s="11"/>
+      <c r="F69" s="26">
+        <v>45241</v>
+      </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="24"/>
@@ -3179,7 +3229,9 @@
         <v>116</v>
       </c>
       <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="F70" s="26">
+        <v>45241</v>
+      </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
@@ -3194,7 +3246,9 @@
         <v>116</v>
       </c>
       <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
+      <c r="F71" s="26">
+        <v>45241</v>
+      </c>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
@@ -3209,29 +3263,43 @@
         <v>116</v>
       </c>
       <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="F72" s="26">
+        <v>45241</v>
+      </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" ht="63.45" customHeight="1">
+    <row r="73" ht="135" customHeight="1">
       <c r="A73" s="24"/>
       <c r="B73" s="22"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="C73" t="s" s="15">
+        <v>120</v>
+      </c>
+      <c r="D73" t="s" s="19">
+        <v>116</v>
+      </c>
       <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+      <c r="F73" s="26">
+        <v>45241</v>
+      </c>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" ht="63.45" customHeight="1">
+    <row r="74" ht="72.95" customHeight="1">
       <c r="A74" s="24"/>
       <c r="B74" s="22"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="C74" t="s" s="15">
+        <v>121</v>
+      </c>
+      <c r="D74" t="s" s="19">
+        <v>116</v>
+      </c>
       <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
+      <c r="F74" s="26">
+        <v>45241</v>
+      </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
@@ -3239,10 +3307,16 @@
     <row r="75" ht="63.45" customHeight="1">
       <c r="A75" s="24"/>
       <c r="B75" s="22"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+      <c r="C75" t="s" s="15">
+        <v>122</v>
+      </c>
+      <c r="D75" t="s" s="19">
+        <v>116</v>
+      </c>
       <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
+      <c r="F75" s="26">
+        <v>45241</v>
+      </c>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
@@ -3250,10 +3324,16 @@
     <row r="76" ht="63.45" customHeight="1">
       <c r="A76" s="24"/>
       <c r="B76" s="22"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+      <c r="C76" t="s" s="15">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s" s="19">
+        <v>116</v>
+      </c>
       <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
+      <c r="F76" s="26">
+        <v>45241</v>
+      </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
@@ -3261,10 +3341,16 @@
     <row r="77" ht="63.45" customHeight="1">
       <c r="A77" s="24"/>
       <c r="B77" s="22"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
+      <c r="C77" t="s" s="15">
+        <v>124</v>
+      </c>
+      <c r="D77" t="s" s="19">
+        <v>116</v>
+      </c>
       <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
+      <c r="F77" s="26">
+        <v>45241</v>
+      </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
@@ -3272,41 +3358,41 @@
     <row r="78" ht="63.45" customHeight="1">
       <c r="A78" s="24"/>
       <c r="B78" s="22"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
+      <c r="C78" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="D78" t="s" s="19">
+        <v>116</v>
+      </c>
       <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
+      <c r="F78" s="26">
+        <v>45241</v>
+      </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" ht="42.95" customHeight="1">
+    <row r="79" ht="63.45" customHeight="1">
       <c r="A79" s="24"/>
-      <c r="B79" t="s" s="18">
-        <v>120</v>
-      </c>
-      <c r="C79" t="s" s="19">
-        <v>121</v>
-      </c>
-      <c r="D79" t="s" s="19">
-        <v>122</v>
-      </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-    </row>
-    <row r="80" ht="57.95" customHeight="1">
+      <c r="B79" s="22"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" ht="42.95" customHeight="1">
       <c r="A80" s="24"/>
       <c r="B80" t="s" s="18">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s" s="19">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D80" t="s" s="19">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -3316,12 +3402,14 @@
     </row>
     <row r="81" ht="57.95" customHeight="1">
       <c r="A81" s="24"/>
-      <c r="B81" s="23"/>
+      <c r="B81" t="s" s="18">
+        <v>129</v>
+      </c>
       <c r="C81" t="s" s="19">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s" s="19">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -3329,16 +3417,14 @@
       <c r="H81" s="20"/>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" ht="42.95" customHeight="1">
+    <row r="82" ht="57.95" customHeight="1">
       <c r="A82" s="24"/>
-      <c r="B82" t="s" s="18">
-        <v>128</v>
-      </c>
+      <c r="B82" s="23"/>
       <c r="C82" t="s" s="19">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D82" t="s" s="19">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -3346,16 +3432,16 @@
       <c r="H82" s="20"/>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" ht="87.95" customHeight="1">
+    <row r="83" ht="42.95" customHeight="1">
       <c r="A83" s="24"/>
       <c r="B83" t="s" s="18">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s" s="19">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s" s="19">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
@@ -3363,16 +3449,16 @@
       <c r="H83" s="20"/>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" ht="57.95" customHeight="1">
+    <row r="84" ht="87.95" customHeight="1">
       <c r="A84" s="24"/>
       <c r="B84" t="s" s="18">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s" s="19">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D84" t="s" s="19">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -3382,12 +3468,14 @@
     </row>
     <row r="85" ht="57.95" customHeight="1">
       <c r="A85" s="24"/>
-      <c r="B85" s="23"/>
+      <c r="B85" t="s" s="18">
+        <v>140</v>
+      </c>
       <c r="C85" t="s" s="19">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s" s="19">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -3397,14 +3485,12 @@
     </row>
     <row r="86" ht="57.95" customHeight="1">
       <c r="A86" s="24"/>
-      <c r="B86" t="s" s="18">
-        <v>131</v>
-      </c>
+      <c r="B86" s="23"/>
       <c r="C86" t="s" s="19">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D86" t="s" s="19">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -3412,14 +3498,16 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" ht="60" customHeight="1">
+    <row r="87" ht="57.95" customHeight="1">
       <c r="A87" s="24"/>
-      <c r="B87" s="23"/>
+      <c r="B87" t="s" s="18">
+        <v>137</v>
+      </c>
       <c r="C87" t="s" s="19">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D87" t="s" s="19">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -3427,16 +3515,14 @@
       <c r="H87" s="20"/>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" ht="77" customHeight="1">
+    <row r="88" ht="60" customHeight="1">
       <c r="A88" s="24"/>
-      <c r="B88" t="s" s="18">
-        <v>142</v>
-      </c>
+      <c r="B88" s="23"/>
       <c r="C88" t="s" s="19">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D88" t="s" s="19">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -3444,16 +3530,16 @@
       <c r="H88" s="20"/>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" ht="79" customHeight="1">
+    <row r="89" ht="77" customHeight="1">
       <c r="A89" s="24"/>
       <c r="B89" t="s" s="18">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C89" t="s" s="19">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D89" t="s" s="19">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -3461,11 +3547,17 @@
       <c r="H89" s="20"/>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" ht="15" customHeight="1">
+    <row r="90" ht="79" customHeight="1">
       <c r="A90" s="24"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
+      <c r="B90" t="s" s="18">
+        <v>151</v>
+      </c>
+      <c r="C90" t="s" s="19">
+        <v>152</v>
+      </c>
+      <c r="D90" t="s" s="19">
+        <v>153</v>
+      </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
@@ -3493,6 +3585,17 @@
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
       <c r="I92" s="20"/>
+    </row>
+    <row r="93" ht="15" customHeight="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/d.iblog2/単体テスト.xlsx
+++ b/d.iblog2/単体テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>表1</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>・項目の下に赤字で「メールアドレスを正しく入力してください」と表示</t>
+  </si>
+  <si>
+    <t>ハイフン、アットマーク以外の半角記号も入力できてします。</t>
   </si>
   <si>
     <t>パスワードの入力BOXに半角英数字以外の文字を入力し、「確認する」をクリック</t>
@@ -2976,8 +2979,12 @@
         <v>95</v>
       </c>
       <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="F55" s="26">
+        <v>45241</v>
+      </c>
+      <c r="G55" t="s" s="15">
+        <v>96</v>
+      </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
     </row>
@@ -2985,10 +2992,10 @@
       <c r="A56" s="24"/>
       <c r="B56" s="23"/>
       <c r="C56" t="s" s="19">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s" s="19">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="26">
@@ -3002,10 +3009,10 @@
       <c r="A57" s="24"/>
       <c r="B57" s="22"/>
       <c r="C57" t="s" s="15">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s" s="15">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="26">
@@ -3019,10 +3026,10 @@
       <c r="A58" s="24"/>
       <c r="B58" s="23"/>
       <c r="C58" t="s" s="19">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s" s="19">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="26">
@@ -3036,10 +3043,10 @@
       <c r="A59" s="24"/>
       <c r="B59" s="22"/>
       <c r="C59" t="s" s="15">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s" s="15">
         <v>102</v>
-      </c>
-      <c r="D59" t="s" s="15">
-        <v>101</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="26">
@@ -3053,10 +3060,10 @@
       <c r="A60" s="24"/>
       <c r="B60" s="22"/>
       <c r="C60" t="s" s="15">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="26">
@@ -3070,10 +3077,10 @@
       <c r="A61" s="24"/>
       <c r="B61" s="22"/>
       <c r="C61" t="s" s="15">
+        <v>106</v>
+      </c>
+      <c r="D61" t="s" s="15">
         <v>105</v>
-      </c>
-      <c r="D61" t="s" s="15">
-        <v>104</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="26">
@@ -3087,10 +3094,10 @@
       <c r="A62" s="24"/>
       <c r="B62" s="22"/>
       <c r="C62" t="s" s="15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="26">
@@ -3104,10 +3111,10 @@
       <c r="A63" s="24"/>
       <c r="B63" s="22"/>
       <c r="C63" t="s" s="15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="26">
@@ -3121,13 +3128,15 @@
       <c r="A64" s="24"/>
       <c r="B64" s="22"/>
       <c r="C64" t="s" s="15">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s" s="15">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="26">
+        <v>45241</v>
+      </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
@@ -3136,10 +3145,10 @@
       <c r="A65" s="24"/>
       <c r="B65" s="22"/>
       <c r="C65" t="s" s="15">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="26">
@@ -3153,10 +3162,10 @@
       <c r="A66" s="24"/>
       <c r="B66" s="22"/>
       <c r="C66" t="s" s="15">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s" s="15">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="26">
@@ -3170,10 +3179,10 @@
       <c r="A67" s="24"/>
       <c r="B67" s="22"/>
       <c r="C67" t="s" s="15">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="26">
@@ -3187,10 +3196,10 @@
       <c r="A68" s="24"/>
       <c r="B68" s="22"/>
       <c r="C68" t="s" s="15">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="26">
@@ -3203,13 +3212,13 @@
     <row r="69" ht="63.45" customHeight="1">
       <c r="A69" s="24"/>
       <c r="B69" t="s" s="18">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s" s="19">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D69" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="26">
@@ -3223,10 +3232,10 @@
       <c r="A70" s="24"/>
       <c r="B70" s="22"/>
       <c r="C70" t="s" s="19">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s" s="19">
         <v>117</v>
-      </c>
-      <c r="D70" t="s" s="19">
-        <v>116</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="26">
@@ -3240,10 +3249,10 @@
       <c r="A71" s="24"/>
       <c r="B71" s="22"/>
       <c r="C71" t="s" s="19">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="26">
@@ -3257,10 +3266,10 @@
       <c r="A72" s="24"/>
       <c r="B72" s="22"/>
       <c r="C72" t="s" s="19">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="26">
@@ -3274,10 +3283,10 @@
       <c r="A73" s="24"/>
       <c r="B73" s="22"/>
       <c r="C73" t="s" s="15">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="26">
@@ -3291,10 +3300,10 @@
       <c r="A74" s="24"/>
       <c r="B74" s="22"/>
       <c r="C74" t="s" s="15">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="26">
@@ -3308,10 +3317,10 @@
       <c r="A75" s="24"/>
       <c r="B75" s="22"/>
       <c r="C75" t="s" s="15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="26">
@@ -3325,10 +3334,10 @@
       <c r="A76" s="24"/>
       <c r="B76" s="22"/>
       <c r="C76" t="s" s="15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="26">
@@ -3342,10 +3351,10 @@
       <c r="A77" s="24"/>
       <c r="B77" s="22"/>
       <c r="C77" t="s" s="15">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="26">
@@ -3359,10 +3368,10 @@
       <c r="A78" s="24"/>
       <c r="B78" s="22"/>
       <c r="C78" t="s" s="15">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s" s="19">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="26">
@@ -3386,13 +3395,13 @@
     <row r="80" ht="42.95" customHeight="1">
       <c r="A80" s="24"/>
       <c r="B80" t="s" s="18">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s" s="19">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D80" t="s" s="19">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -3403,13 +3412,13 @@
     <row r="81" ht="57.95" customHeight="1">
       <c r="A81" s="24"/>
       <c r="B81" t="s" s="18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s" s="19">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D81" t="s" s="19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -3421,10 +3430,10 @@
       <c r="A82" s="24"/>
       <c r="B82" s="23"/>
       <c r="C82" t="s" s="19">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s" s="19">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -3435,13 +3444,13 @@
     <row r="83" ht="42.95" customHeight="1">
       <c r="A83" s="24"/>
       <c r="B83" t="s" s="18">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C83" t="s" s="19">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D83" t="s" s="19">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
@@ -3452,13 +3461,13 @@
     <row r="84" ht="87.95" customHeight="1">
       <c r="A84" s="24"/>
       <c r="B84" t="s" s="18">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s" s="19">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s" s="19">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -3469,13 +3478,13 @@
     <row r="85" ht="57.95" customHeight="1">
       <c r="A85" s="24"/>
       <c r="B85" t="s" s="18">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s" s="19">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D85" t="s" s="19">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
@@ -3487,10 +3496,10 @@
       <c r="A86" s="24"/>
       <c r="B86" s="23"/>
       <c r="C86" t="s" s="19">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s" s="19">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -3501,13 +3510,13 @@
     <row r="87" ht="57.95" customHeight="1">
       <c r="A87" s="24"/>
       <c r="B87" t="s" s="18">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s" s="19">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D87" t="s" s="19">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
@@ -3519,10 +3528,10 @@
       <c r="A88" s="24"/>
       <c r="B88" s="23"/>
       <c r="C88" t="s" s="19">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D88" t="s" s="19">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -3533,13 +3542,13 @@
     <row r="89" ht="77" customHeight="1">
       <c r="A89" s="24"/>
       <c r="B89" t="s" s="18">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s" s="19">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D89" t="s" s="19">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -3550,13 +3559,13 @@
     <row r="90" ht="79" customHeight="1">
       <c r="A90" s="24"/>
       <c r="B90" t="s" s="18">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C90" t="s" s="19">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D90" t="s" s="19">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>

--- a/d.iblog2/単体テスト.xlsx
+++ b/d.iblog2/単体テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>表1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>確認日時</t>
+  </si>
+  <si>
+    <t>確認結果</t>
   </si>
   <si>
     <t>備考</t>
@@ -65,10 +68,13 @@
     <t>D.Iblogのホーム画面を表示</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>アカウント登録画面の表示</t>
   </si>
   <si>
-    <t>D.Iblogのツールバーの’登録フォーム’をクッリク</t>
+    <t>D.Iblogのツールバーの’登録フォーム’をクリック</t>
   </si>
   <si>
     <t>アカウント登録画面に遷移し、アカウント登録画面を表示する</t>
@@ -83,7 +89,7 @@
     <t>・名前（姓）の項目のラベルは表示されている</t>
   </si>
   <si>
-    <t>・入力BOXが項目の隣にあることが目視で確認できる</t>
+    <t>・入力BOXが項目の隣にあり、空欄でことが目視で確認できる</t>
   </si>
   <si>
     <t>名前（姓）の項目の入力BOXに文字を入力をする</t>
@@ -125,9 +131,6 @@
     <t>・メールアドレスの項目があることが確認できる</t>
   </si>
   <si>
-    <t>・入力BOXが項目の隣にあることを目視で確認できる</t>
-  </si>
-  <si>
     <t>メールアドレスの入力BOXに文字を入力する</t>
   </si>
   <si>
@@ -194,9 +197,6 @@
     <t>・住所（市町村）という項目があることが確認できる</t>
   </si>
   <si>
-    <t>・入力BOXが項目の隣にあることを目視で確認</t>
-  </si>
-  <si>
     <t>住所（市町村）の入力BOXに文字を入力する</t>
   </si>
   <si>
@@ -212,6 +212,27 @@
     <t>住所（番地）の入力BOXに文字を入力する</t>
   </si>
   <si>
+    <t>管理者権限の項目の有無を目視で確認</t>
+  </si>
+  <si>
+    <t>・管理者権限という項目があることを確認できる</t>
+  </si>
+  <si>
+    <t>・一般と表示されたBOXが項目の隣にあることが確認できる</t>
+  </si>
+  <si>
+    <t>BOXの左の下矢印をクリックし、選択肢を確認</t>
+  </si>
+  <si>
+    <t>・「一般」「管理者」が選択肢として表示されることを確認できる</t>
+  </si>
+  <si>
+    <t>「管理者」を選択する</t>
+  </si>
+  <si>
+    <t>・「管理者」とBOXに表示されることが確認できる</t>
+  </si>
+  <si>
     <t>「確認する」のボタンがあることを目視で確認</t>
   </si>
   <si>
@@ -224,7 +245,7 @@
     <t>登録フォームが空欄の状態で「確認する」のボタンを押す</t>
   </si>
   <si>
-    <t>画面遷移せず各項目の下にエラーメッセージが表示されていることを確認</t>
+    <t>画面遷移せず性別、アカウント権限以外の各項目の下にエラーメッセージが表示されていることを確認</t>
   </si>
   <si>
     <t>入力チェック（必須項目）</t>
@@ -410,6 +431,48 @@
     <t>住所（番地）の入力BOXに半角英語以外で１０文字以内入力する</t>
   </si>
   <si>
+    <t>登録確認画面の表示確認</t>
+  </si>
+  <si>
+    <t>登録画面で入力した内容が確認画面で表示されていることを目視で確認</t>
+  </si>
+  <si>
+    <t>・登録画面で入力した内容が各項目正しく表示項目名の後に表示されている</t>
+  </si>
+  <si>
+    <t>「修正」「登録」のボタンがあることを目視で確認</t>
+  </si>
+  <si>
+    <t>・フォームの下部に「修正」「登録」のボタンがあることが確認できる</t>
+  </si>
+  <si>
+    <t>画面表示の確認</t>
+  </si>
+  <si>
+    <t>登録画面で入力内容が保持されていることを確認</t>
+  </si>
+  <si>
+    <t>・登録画面が表示した時、パスワード以外の項目の入力内容がそのままの状態で保持されていることが確認できる</t>
+  </si>
+  <si>
+    <t>「登録ありがとうございました」と表示されていることを目視で確認</t>
+  </si>
+  <si>
+    <t>・登録完了のメッセージが正しく表示されていることを確認する</t>
+  </si>
+  <si>
+    <t>「登録」のボタンをクリック</t>
+  </si>
+  <si>
+    <t>「登録」ボタンをクリックし、登録完了画面が表示されてことを確認</t>
+  </si>
+  <si>
+    <t>画面下部に「TOP」のボタンがあることを目視で確認</t>
+  </si>
+  <si>
+    <t>・登録完了メッセージの下に「TOP」のボタンがあることが確認できる</t>
+  </si>
+  <si>
     <t>画面遷移（登録画面〜確認画面）</t>
   </si>
   <si>
@@ -419,21 +482,6 @@
     <t>・登録確認画面を表示</t>
   </si>
   <si>
-    <t>登録確認画面の表示確認</t>
-  </si>
-  <si>
-    <t>登録画面で入力した内容が確認画面で表示されていることを目視で確認</t>
-  </si>
-  <si>
-    <t>・登録画面で入力した内容が各項目正しく表示項目名の後に表示されている</t>
-  </si>
-  <si>
-    <t>「修正」「登録」のボタンがあることを目視で確認</t>
-  </si>
-  <si>
-    <t>・フォームの下部に「修正」「登録」のボタンがあることが確認できる</t>
-  </si>
-  <si>
     <t>画面遷移（確認画面〜登録画面）</t>
   </si>
   <si>
@@ -443,37 +491,10 @@
     <t>・「修正」をクリックし、登録画面に画面遷移する</t>
   </si>
   <si>
-    <t>画面表示の確認</t>
-  </si>
-  <si>
-    <t>登録画面で入力内容が保持されていることを確認</t>
-  </si>
-  <si>
-    <t>・登録画面が表示した時、パスワード以外の項目の入力内容がそのままの状態で保持されていることが確認できる</t>
-  </si>
-  <si>
     <t>画面遷移（登録確認画面〜登録完了画面）</t>
   </si>
   <si>
     <t>登録画面でパスワードを登録し、「確認する」をクリック</t>
-  </si>
-  <si>
-    <t>「登録」のボタンをクリック</t>
-  </si>
-  <si>
-    <t>「登録」ボタンをクリックし、登録完了画面が表示されてことを確認</t>
-  </si>
-  <si>
-    <t>「登録ありがとうございました」と表示されていることを目視で確認</t>
-  </si>
-  <si>
-    <t>・登録完了のメッセージが正しく表示されていることを確認する</t>
-  </si>
-  <si>
-    <t>画面下部に「TOP」のボタンがあることを目視で確認</t>
-  </si>
-  <si>
-    <t>・登録完了メッセージの下に「TOP」のボタンがあることが確認できる</t>
   </si>
   <si>
     <t>画面遷移（登録完了画面〜D.Iblog）</t>
@@ -697,6 +718,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="14"/>
       </right>
       <top style="thin">
@@ -752,28 +788,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -785,6 +806,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -813,46 +837,52 @@
     <xf numFmtId="59" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1940,7 +1970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1950,9 +1980,9 @@
     <col min="2" max="2" width="17.8125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.6016" style="1" customWidth="1"/>
     <col min="4" max="5" width="19.6016" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="9" width="19.6016" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="10" width="19.6016" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -1964,1651 +1994,2002 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" ht="18.7" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G2" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="H2" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" ht="48.7" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13">
+        <v>45185</v>
+      </c>
+      <c r="G3" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" ht="79.6" customHeight="1">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19">
+        <v>45185</v>
+      </c>
+      <c r="G4" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" ht="48.45" customHeight="1">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="21">
+        <v>19</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G5" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="18"/>
+      <c r="D6" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G6" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" ht="48.45" customHeight="1">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G7" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" ht="48.45" customHeight="1">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="17">
+        <v>24</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G8" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" ht="48.45" customHeight="1">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G9" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" ht="48.45" customHeight="1">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" t="s" s="17">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s" s="17">
+        <v>22</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G10" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" ht="48.45" customHeight="1">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="B11" s="26"/>
+      <c r="C11" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G11" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" ht="48.45" customHeight="1">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="B12" s="25"/>
+      <c r="C12" s="18"/>
+      <c r="D12" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G12" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" ht="48.45" customHeight="1">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12">
-        <v>45185</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" ht="79.6" customHeight="1">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="14">
+      <c r="B13" s="26"/>
+      <c r="C13" t="s" s="21">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G13" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" ht="48.45" customHeight="1">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="15">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="15">
+      <c r="B14" s="25"/>
+      <c r="C14" t="s" s="17">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G14" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" ht="48.45" customHeight="1">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G15" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" ht="48.45" customHeight="1">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17">
-        <v>45185</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" ht="48.45" customHeight="1">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="18">
+      <c r="B16" s="25"/>
+      <c r="C16" t="s" s="17">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G16" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" ht="48.45" customHeight="1">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="19">
+      <c r="B17" s="26"/>
+      <c r="C17" t="s" s="21">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G17" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" ht="48.45" customHeight="1">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="19">
+      <c r="B18" s="25"/>
+      <c r="C18" s="18"/>
+      <c r="D18" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G18" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" ht="48.45" customHeight="1">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="16"/>
-      <c r="D6" t="s" s="15">
+      <c r="B19" s="26"/>
+      <c r="C19" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G19" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" ht="48.45" customHeight="1">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" ht="48.45" customHeight="1">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" t="s" s="19">
+      <c r="B20" s="25"/>
+      <c r="C20" t="s" s="17">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G20" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" ht="48.45" customHeight="1">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="D7" t="s" s="19">
+      <c r="B21" s="26"/>
+      <c r="C21" s="22"/>
+      <c r="D21" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" ht="48.45" customHeight="1">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" t="s" s="15">
+      <c r="E21" s="22"/>
+      <c r="F21" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G21" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" ht="48.45" customHeight="1">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" t="s" s="17">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G22" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" ht="48.45" customHeight="1">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="D8" t="s" s="15">
+      <c r="B23" s="26"/>
+      <c r="C23" t="s" s="21">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G23" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" ht="72.95" customHeight="1">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" ht="48.45" customHeight="1">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" ht="48.45" customHeight="1">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" t="s" s="15">
+      <c r="B24" s="25"/>
+      <c r="C24" s="18"/>
+      <c r="D24" t="s" s="17">
+        <v>41</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G24" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" ht="48.45" customHeight="1">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="D10" t="s" s="15">
+      <c r="B25" s="26"/>
+      <c r="C25" t="s" s="21">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s" s="21">
+        <v>43</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="13">
+        <v>45185</v>
+      </c>
+      <c r="G25" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" ht="48.45" customHeight="1">
+      <c r="A26" s="15">
+        <v>24</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" t="s" s="17">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s" s="17">
+        <v>45</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19">
+        <v>45185</v>
+      </c>
+      <c r="G26" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" s="15">
+        <v>25</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="22"/>
+      <c r="D27" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" ht="48.45" customHeight="1">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" t="s" s="19">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" ht="48.45" customHeight="1">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="16"/>
-      <c r="D12" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" ht="48.45" customHeight="1">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" t="s" s="19">
+      <c r="E27" s="22"/>
+      <c r="F27" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G27" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" ht="48.45" customHeight="1">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="D13" t="s" s="19">
+      <c r="B28" s="25"/>
+      <c r="C28" t="s" s="17">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G28" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" ht="48.45" customHeight="1">
+      <c r="A29" s="15">
+        <v>27</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" t="s" s="21">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s" s="21">
+        <v>48</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G29" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" ht="48.45" customHeight="1">
+      <c r="A30" s="15">
+        <v>28</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="18"/>
+      <c r="D30" t="s" s="17">
+        <v>49</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G30" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" ht="63.45" customHeight="1">
+      <c r="A31" s="15">
+        <v>29</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G31" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" ht="63.45" customHeight="1">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" t="s" s="17">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s" s="17">
+        <v>53</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G32" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" ht="48.45" customHeight="1">
+      <c r="A33" s="15">
+        <v>31</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" t="s" s="21">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G33" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="15">
+        <v>32</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="18"/>
+      <c r="D34" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" ht="48.45" customHeight="1">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" ht="48.45" customHeight="1">
-      <c r="A15" s="13">
-        <v>13</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" ht="48.45" customHeight="1">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s" s="19">
+      <c r="E34" s="18"/>
+      <c r="F34" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G34" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" ht="48.45" customHeight="1">
+      <c r="A35" s="15">
+        <v>33</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" t="s" s="21">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s" s="21">
+        <v>57</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G35" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" ht="48.45" customHeight="1">
+      <c r="A36" s="15">
+        <v>34</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" t="s" s="17">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s" s="17">
+        <v>59</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G36" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" s="15">
+        <v>35</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="22"/>
+      <c r="D37" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" ht="48.45" customHeight="1">
-      <c r="A17" s="13">
-        <v>15</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" ht="48.45" customHeight="1">
-      <c r="A18" s="13">
-        <v>16</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="16"/>
-      <c r="D18" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" ht="48.45" customHeight="1">
-      <c r="A19" s="13">
-        <v>17</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" t="s" s="19">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s" s="19">
-        <v>20</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" ht="48.45" customHeight="1">
-      <c r="A20" s="13">
-        <v>18</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" ht="48.45" customHeight="1">
-      <c r="A21" s="13">
-        <v>19</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="20"/>
-      <c r="D21" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" ht="48.45" customHeight="1">
-      <c r="A22" s="13">
-        <v>20</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" t="s" s="15">
+      <c r="E37" s="22"/>
+      <c r="F37" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G37" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" ht="48.45" customHeight="1">
+      <c r="A38" s="15">
         <v>36</v>
       </c>
-      <c r="D22" t="s" s="15">
+      <c r="B38" s="25"/>
+      <c r="C38" t="s" s="17">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s" s="17">
+        <v>57</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G38" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" ht="48.45" customHeight="1">
+      <c r="A39" s="27"/>
+      <c r="B39" s="25"/>
+      <c r="C39" t="s" s="17">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s" s="17">
+        <v>62</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="23">
+        <v>45241</v>
+      </c>
+      <c r="G39" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" ht="48.45" customHeight="1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="17"/>
+      <c r="D40" t="s" s="17">
+        <v>63</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="23">
+        <v>45241</v>
+      </c>
+      <c r="G40" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" ht="57.95" customHeight="1">
+      <c r="A41" s="27"/>
+      <c r="B41" s="25"/>
+      <c r="C41" t="s" s="17">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s" s="17">
+        <v>65</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="23">
+        <v>45241</v>
+      </c>
+      <c r="G41" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" ht="48.45" customHeight="1">
+      <c r="A42" s="27"/>
+      <c r="B42" s="25"/>
+      <c r="C42" t="s" s="17">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s" s="17">
+        <v>67</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="13">
+        <v>45241</v>
+      </c>
+      <c r="G42" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" ht="78.45" customHeight="1">
+      <c r="A43" s="15">
         <v>37</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" ht="48.45" customHeight="1">
-      <c r="A23" s="13">
-        <v>21</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" t="s" s="19">
+      <c r="B43" s="26"/>
+      <c r="C43" t="s" s="21">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s" s="21">
+        <v>69</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="28">
+        <v>45185</v>
+      </c>
+      <c r="G43" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" ht="87.95" customHeight="1">
+      <c r="A44" s="27"/>
+      <c r="B44" t="s" s="20">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s" s="21">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s" s="21">
+        <v>72</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="28">
+        <v>45185</v>
+      </c>
+      <c r="G44" t="s" s="21">
+        <v>13</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+    </row>
+    <row r="45" ht="63.45" customHeight="1">
+      <c r="A45" s="15">
         <v>38</v>
       </c>
-      <c r="D23" t="s" s="19">
+      <c r="B45" t="s" s="16">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s" s="17">
+        <v>74</v>
+      </c>
+      <c r="D45" t="s" s="17">
+        <v>75</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19">
+        <v>45185</v>
+      </c>
+      <c r="G45" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" ht="48.45" customHeight="1">
+      <c r="A46" s="15">
         <v>39</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" ht="72.95" customHeight="1">
-      <c r="A24" s="13">
-        <v>22</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="16"/>
-      <c r="D24" t="s" s="15">
+      <c r="B46" s="26"/>
+      <c r="C46" t="s" s="21">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s" s="21">
+        <v>77</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G46" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+    </row>
+    <row r="47" ht="48.45" customHeight="1">
+      <c r="A47" s="15">
         <v>40</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" ht="48.45" customHeight="1">
-      <c r="A25" s="13">
-        <v>23</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" t="s" s="19">
+      <c r="B47" s="25"/>
+      <c r="C47" t="s" s="17">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s" s="17">
+        <v>79</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G47" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" ht="48.45" customHeight="1">
+      <c r="A48" s="15">
         <v>41</v>
       </c>
-      <c r="D25" t="s" s="19">
+      <c r="B48" s="26"/>
+      <c r="C48" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s" s="21">
+        <v>81</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G48" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" ht="48.45" customHeight="1">
+      <c r="A49" s="15">
         <v>42</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="12">
-        <v>45185</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" ht="48.45" customHeight="1">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" t="s" s="15">
+      <c r="B49" s="25"/>
+      <c r="C49" t="s" s="17">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s" s="17">
+        <v>83</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G49" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" ht="48.45" customHeight="1">
+      <c r="A50" s="15">
         <v>43</v>
       </c>
-      <c r="D26" t="s" s="15">
+      <c r="B50" s="26"/>
+      <c r="C50" t="s" s="21">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s" s="21">
+        <v>85</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G50" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+    </row>
+    <row r="51" ht="48.45" customHeight="1">
+      <c r="A51" s="15">
         <v>44</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17">
-        <v>45185</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" ht="45" customHeight="1">
-      <c r="A27" s="13">
-        <v>25</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="20"/>
-      <c r="D27" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" ht="48.45" customHeight="1">
-      <c r="A28" s="13">
-        <v>26</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" t="s" s="15">
+      <c r="B51" s="25"/>
+      <c r="C51" t="s" s="17">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s" s="17">
+        <v>87</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G51" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" ht="63.45" customHeight="1">
+      <c r="A52" s="15">
         <v>45</v>
       </c>
-      <c r="D28" t="s" s="19">
-        <v>20</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" ht="48.45" customHeight="1">
-      <c r="A29" s="13">
-        <v>27</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" t="s" s="19">
+      <c r="B52" s="26"/>
+      <c r="C52" t="s" s="21">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s" s="21">
+        <v>89</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G52" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" ht="63.45" customHeight="1">
+      <c r="A53" s="15">
         <v>46</v>
       </c>
-      <c r="D29" t="s" s="19">
+      <c r="B53" s="25"/>
+      <c r="C53" t="s" s="17">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s" s="17">
+        <v>91</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G53" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" ht="63.45" customHeight="1">
+      <c r="A54" s="15">
         <v>47</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" ht="48.45" customHeight="1">
-      <c r="A30" s="13">
-        <v>28</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="16"/>
-      <c r="D30" t="s" s="15">
+      <c r="B54" s="26"/>
+      <c r="C54" t="s" s="21">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s" s="21">
+        <v>93</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23">
+        <v>45185</v>
+      </c>
+      <c r="G54" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" ht="78.45" customHeight="1">
+      <c r="A55" s="15">
         <v>48</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" ht="63.45" customHeight="1">
-      <c r="A31" s="13">
-        <v>29</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" t="s" s="19">
+      <c r="B55" t="s" s="16">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s" s="17">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s" s="17">
+        <v>96</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="13">
+        <v>45185</v>
+      </c>
+      <c r="G55" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" ht="78.45" customHeight="1">
+      <c r="A56" s="15">
         <v>49</v>
       </c>
-      <c r="D31" t="s" s="19">
+      <c r="B56" s="26"/>
+      <c r="C56" t="s" s="21">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s" s="21">
+        <v>96</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="28">
+        <v>45241</v>
+      </c>
+      <c r="G56" t="s" s="21">
+        <v>13</v>
+      </c>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+    </row>
+    <row r="57" ht="78.45" customHeight="1">
+      <c r="A57" s="15">
         <v>50</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" ht="63.45" customHeight="1">
-      <c r="A32" s="13">
-        <v>30</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" t="s" s="15">
+      <c r="B57" s="25"/>
+      <c r="C57" t="s" s="17">
+        <v>98</v>
+      </c>
+      <c r="D57" t="s" s="17">
+        <v>99</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G57" t="s" s="21">
+        <v>13</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" ht="78.45" customHeight="1">
+      <c r="A58" s="15">
         <v>51</v>
       </c>
-      <c r="D32" t="s" s="15">
+      <c r="B58" s="26"/>
+      <c r="C58" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s" s="21">
+        <v>99</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G58" s="18"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" ht="123.45" customHeight="1">
+      <c r="A59" s="15">
         <v>52</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" ht="48.45" customHeight="1">
-      <c r="A33" s="13">
-        <v>31</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" t="s" s="19">
+      <c r="B59" s="25"/>
+      <c r="C59" t="s" s="17">
+        <v>101</v>
+      </c>
+      <c r="D59" t="s" s="17">
+        <v>102</v>
+      </c>
+      <c r="E59" s="18"/>
+      <c r="F59" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" t="s" s="17">
+        <v>103</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" ht="78.45" customHeight="1">
+      <c r="A60" s="15">
         <v>53</v>
       </c>
-      <c r="D33" t="s" s="19">
+      <c r="B60" s="26"/>
+      <c r="C60" t="s" s="21">
+        <v>104</v>
+      </c>
+      <c r="D60" t="s" s="21">
+        <v>105</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G60" s="18"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+    </row>
+    <row r="61" ht="78.45" customHeight="1">
+      <c r="A61" s="15">
         <v>54</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" ht="33.45" customHeight="1">
-      <c r="A34" s="13">
-        <v>32</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="16"/>
-      <c r="D34" t="s" s="15">
+      <c r="B61" s="25"/>
+      <c r="C61" t="s" s="17">
+        <v>106</v>
+      </c>
+      <c r="D61" t="s" s="17">
+        <v>107</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+    </row>
+    <row r="62" ht="63.45" customHeight="1">
+      <c r="A62" s="15">
         <v>55</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" ht="48.45" customHeight="1">
-      <c r="A35" s="13">
-        <v>33</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" t="s" s="19">
+      <c r="B62" s="26"/>
+      <c r="C62" t="s" s="21">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s" s="21">
+        <v>109</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+    </row>
+    <row r="63" ht="63.45" customHeight="1">
+      <c r="A63" s="15">
         <v>56</v>
       </c>
-      <c r="D35" t="s" s="19">
+      <c r="B63" s="25"/>
+      <c r="C63" t="s" s="17">
+        <v>110</v>
+      </c>
+      <c r="D63" t="s" s="17">
+        <v>109</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" ht="90" customHeight="1">
+      <c r="A64" s="15">
         <v>57</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" ht="48.45" customHeight="1">
-      <c r="A36" s="13">
-        <v>34</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" t="s" s="15">
+      <c r="B64" s="25"/>
+      <c r="C64" t="s" s="17">
+        <v>111</v>
+      </c>
+      <c r="D64" t="s" s="17">
+        <v>112</v>
+      </c>
+      <c r="E64" s="18"/>
+      <c r="F64" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" ht="90" customHeight="1">
+      <c r="A65" s="15">
         <v>58</v>
       </c>
-      <c r="D36" t="s" s="15">
+      <c r="B65" s="25"/>
+      <c r="C65" t="s" s="17">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s" s="17">
+        <v>112</v>
+      </c>
+      <c r="E65" s="18"/>
+      <c r="F65" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" ht="75" customHeight="1">
+      <c r="A66" s="15">
         <v>59</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-    </row>
-    <row r="37" ht="45" customHeight="1">
-      <c r="A37" s="13">
-        <v>35</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="20"/>
-      <c r="D37" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" ht="48.45" customHeight="1">
-      <c r="A38" s="13">
-        <v>36</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" t="s" s="15">
+      <c r="B66" s="25"/>
+      <c r="C66" t="s" s="17">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s" s="17">
+        <v>112</v>
+      </c>
+      <c r="E66" s="18"/>
+      <c r="F66" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" ht="75" customHeight="1">
+      <c r="A67" s="15">
         <v>60</v>
       </c>
-      <c r="D38" t="s" s="15">
-        <v>57</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" ht="78.45" customHeight="1">
-      <c r="A39" s="13">
-        <v>37</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" t="s" s="19">
+      <c r="B67" s="25"/>
+      <c r="C67" t="s" s="17">
+        <v>114</v>
+      </c>
+      <c r="D67" t="s" s="17">
+        <v>112</v>
+      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" ht="135" customHeight="1">
+      <c r="A68" s="15">
         <v>61</v>
       </c>
-      <c r="D39" t="s" s="19">
+      <c r="B68" s="25"/>
+      <c r="C68" t="s" s="17">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s" s="17">
+        <v>116</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+    </row>
+    <row r="69" ht="63.45" customHeight="1">
+      <c r="A69" s="15">
         <v>62</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="12">
-        <v>45185</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" ht="78.45" customHeight="1">
-      <c r="A40" s="24"/>
-      <c r="B40" t="s" s="18">
+      <c r="B69" s="25"/>
+      <c r="C69" t="s" s="17">
+        <v>117</v>
+      </c>
+      <c r="D69" t="s" s="17">
+        <v>112</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+    </row>
+    <row r="70" ht="63.45" customHeight="1">
+      <c r="A70" s="15">
         <v>63</v>
       </c>
-      <c r="C40" t="s" s="19">
+      <c r="B70" s="25"/>
+      <c r="C70" t="s" s="17">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s" s="17">
+        <v>119</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+    </row>
+    <row r="71" ht="63.45" customHeight="1">
+      <c r="A71" s="15">
         <v>64</v>
       </c>
-      <c r="D40" t="s" s="19">
+      <c r="B71" s="25"/>
+      <c r="C71" t="s" s="17">
+        <v>120</v>
+      </c>
+      <c r="D71" t="s" s="17">
+        <v>112</v>
+      </c>
+      <c r="E71" s="18"/>
+      <c r="F71" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" ht="63.45" customHeight="1">
+      <c r="A72" s="15">
         <v>65</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="25">
-        <v>45185</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" ht="63.45" customHeight="1">
-      <c r="A41" s="13">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s" s="14">
+      <c r="B72" s="25"/>
+      <c r="C72" t="s" s="17">
+        <v>121</v>
+      </c>
+      <c r="D72" t="s" s="17">
+        <v>112</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+    </row>
+    <row r="73" ht="63.45" customHeight="1">
+      <c r="A73" s="15">
         <v>66</v>
       </c>
-      <c r="C41" t="s" s="15">
+      <c r="B73" t="s" s="20">
+        <v>122</v>
+      </c>
+      <c r="C73" t="s" s="21">
+        <v>123</v>
+      </c>
+      <c r="D73" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G73" s="18"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="27"/>
+    </row>
+    <row r="74" ht="63.45" customHeight="1">
+      <c r="A74" s="15">
         <v>67</v>
       </c>
-      <c r="D41" t="s" s="15">
+      <c r="B74" s="25"/>
+      <c r="C74" t="s" s="21">
+        <v>125</v>
+      </c>
+      <c r="D74" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E74" s="18"/>
+      <c r="F74" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+    </row>
+    <row r="75" ht="63.45" customHeight="1">
+      <c r="A75" s="15">
         <v>68</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17">
-        <v>45185</v>
-      </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" ht="48.45" customHeight="1">
-      <c r="A42" s="13">
-        <v>39</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" t="s" s="19">
+      <c r="B75" s="25"/>
+      <c r="C75" t="s" s="21">
+        <v>126</v>
+      </c>
+      <c r="D75" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E75" s="18"/>
+      <c r="F75" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+    </row>
+    <row r="76" ht="63.45" customHeight="1">
+      <c r="A76" s="15">
         <v>69</v>
       </c>
-      <c r="D42" t="s" s="19">
+      <c r="B76" s="25"/>
+      <c r="C76" t="s" s="21">
+        <v>127</v>
+      </c>
+      <c r="D76" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E76" s="18"/>
+      <c r="F76" s="29">
+        <v>45241</v>
+      </c>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" ht="135" customHeight="1">
+      <c r="A77" s="15">
         <v>70</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" ht="48.45" customHeight="1">
-      <c r="A43" s="13">
-        <v>40</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" t="s" s="15">
-        <v>71</v>
-      </c>
-      <c r="D43" t="s" s="15">
-        <v>72</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" ht="48.45" customHeight="1">
-      <c r="A44" s="13">
-        <v>41</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" t="s" s="19">
-        <v>73</v>
-      </c>
-      <c r="D44" t="s" s="19">
-        <v>74</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-    </row>
-    <row r="45" ht="48.45" customHeight="1">
-      <c r="A45" s="13">
-        <v>42</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" t="s" s="15">
-        <v>75</v>
-      </c>
-      <c r="D45" t="s" s="15">
-        <v>76</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-    </row>
-    <row r="46" ht="48.45" customHeight="1">
-      <c r="A46" s="13">
-        <v>43</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" t="s" s="19">
-        <v>77</v>
-      </c>
-      <c r="D46" t="s" s="19">
-        <v>78</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-    </row>
-    <row r="47" ht="48.45" customHeight="1">
-      <c r="A47" s="13">
-        <v>44</v>
-      </c>
-      <c r="B47" s="22"/>
-      <c r="C47" t="s" s="15">
-        <v>79</v>
-      </c>
-      <c r="D47" t="s" s="15">
-        <v>80</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" ht="63.45" customHeight="1">
-      <c r="A48" s="13">
-        <v>45</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" t="s" s="19">
-        <v>81</v>
-      </c>
-      <c r="D48" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" ht="63.45" customHeight="1">
-      <c r="A49" s="13">
-        <v>46</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" t="s" s="15">
-        <v>83</v>
-      </c>
-      <c r="D49" t="s" s="15">
-        <v>84</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-    </row>
-    <row r="50" ht="63.45" customHeight="1">
-      <c r="A50" s="13">
-        <v>47</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" t="s" s="19">
-        <v>85</v>
-      </c>
-      <c r="D50" t="s" s="19">
-        <v>86</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21">
-        <v>45185</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" ht="78.45" customHeight="1">
-      <c r="A51" s="13">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s" s="14">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s" s="15">
-        <v>88</v>
-      </c>
-      <c r="D51" t="s" s="15">
-        <v>89</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="12">
-        <v>45185</v>
-      </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-    </row>
-    <row r="52" ht="78.45" customHeight="1">
-      <c r="A52" s="13">
-        <v>49</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" t="s" s="19">
-        <v>90</v>
-      </c>
-      <c r="D52" t="s" s="19">
-        <v>89</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="25">
+      <c r="B77" s="25"/>
+      <c r="C77" t="s" s="17">
+        <v>128</v>
+      </c>
+      <c r="D77" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E77" s="18"/>
+      <c r="F77" s="29">
         <v>45241</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" ht="78.45" customHeight="1">
-      <c r="A53" s="13">
-        <v>50</v>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" t="s" s="15">
-        <v>91</v>
-      </c>
-      <c r="D53" t="s" s="15">
-        <v>92</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="26">
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+    </row>
+    <row r="78" ht="72.95" customHeight="1">
+      <c r="A78" s="27"/>
+      <c r="B78" s="25"/>
+      <c r="C78" t="s" s="17">
+        <v>129</v>
+      </c>
+      <c r="D78" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E78" s="18"/>
+      <c r="F78" s="29">
         <v>45241</v>
       </c>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54" ht="78.45" customHeight="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="23"/>
-      <c r="C54" t="s" s="19">
-        <v>93</v>
-      </c>
-      <c r="D54" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="26">
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" ht="63.45" customHeight="1">
+      <c r="A79" s="27"/>
+      <c r="B79" s="25"/>
+      <c r="C79" t="s" s="17">
+        <v>130</v>
+      </c>
+      <c r="D79" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E79" s="18"/>
+      <c r="F79" s="29">
         <v>45241</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55" ht="123.45" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="22"/>
-      <c r="C55" t="s" s="15">
-        <v>94</v>
-      </c>
-      <c r="D55" t="s" s="15">
-        <v>95</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="26">
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+    </row>
+    <row r="80" ht="63.45" customHeight="1">
+      <c r="A80" s="27"/>
+      <c r="B80" s="25"/>
+      <c r="C80" t="s" s="17">
+        <v>131</v>
+      </c>
+      <c r="D80" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E80" s="18"/>
+      <c r="F80" s="29">
         <v>45241</v>
       </c>
-      <c r="G55" t="s" s="15">
-        <v>96</v>
-      </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="56" ht="78.45" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="23"/>
-      <c r="C56" t="s" s="19">
-        <v>97</v>
-      </c>
-      <c r="D56" t="s" s="19">
-        <v>98</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="26">
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+    </row>
+    <row r="81" ht="63.45" customHeight="1">
+      <c r="A81" s="27"/>
+      <c r="B81" s="25"/>
+      <c r="C81" t="s" s="17">
+        <v>132</v>
+      </c>
+      <c r="D81" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="29">
         <v>45241</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" ht="78.45" customHeight="1">
-      <c r="A57" s="24"/>
-      <c r="B57" s="22"/>
-      <c r="C57" t="s" s="15">
-        <v>99</v>
-      </c>
-      <c r="D57" t="s" s="15">
-        <v>100</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="26">
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+    </row>
+    <row r="82" ht="63.45" customHeight="1">
+      <c r="A82" s="27"/>
+      <c r="B82" s="25"/>
+      <c r="C82" t="s" s="17">
+        <v>133</v>
+      </c>
+      <c r="D82" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="E82" s="18"/>
+      <c r="F82" s="29">
         <v>45241</v>
       </c>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-    </row>
-    <row r="58" ht="63.45" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="23"/>
-      <c r="C58" t="s" s="19">
-        <v>101</v>
-      </c>
-      <c r="D58" t="s" s="19">
-        <v>102</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" ht="63.45" customHeight="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="22"/>
-      <c r="C59" t="s" s="15">
-        <v>103</v>
-      </c>
-      <c r="D59" t="s" s="15">
-        <v>102</v>
-      </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" ht="90" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="22"/>
-      <c r="C60" t="s" s="15">
-        <v>104</v>
-      </c>
-      <c r="D60" t="s" s="15">
-        <v>105</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-    </row>
-    <row r="61" ht="90" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="22"/>
-      <c r="C61" t="s" s="15">
-        <v>106</v>
-      </c>
-      <c r="D61" t="s" s="15">
-        <v>105</v>
-      </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" ht="75" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="22"/>
-      <c r="C62" t="s" s="15">
-        <v>107</v>
-      </c>
-      <c r="D62" t="s" s="15">
-        <v>105</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-    </row>
-    <row r="63" ht="75" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="22"/>
-      <c r="C63" t="s" s="15">
-        <v>107</v>
-      </c>
-      <c r="D63" t="s" s="15">
-        <v>105</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-    </row>
-    <row r="64" ht="135" customHeight="1">
-      <c r="A64" s="24"/>
-      <c r="B64" s="22"/>
-      <c r="C64" t="s" s="15">
-        <v>108</v>
-      </c>
-      <c r="D64" t="s" s="15">
-        <v>109</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-    </row>
-    <row r="65" ht="63.45" customHeight="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="22"/>
-      <c r="C65" t="s" s="15">
-        <v>110</v>
-      </c>
-      <c r="D65" t="s" s="15">
-        <v>105</v>
-      </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-    </row>
-    <row r="66" ht="63.45" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="22"/>
-      <c r="C66" t="s" s="15">
-        <v>111</v>
-      </c>
-      <c r="D66" t="s" s="15">
-        <v>112</v>
-      </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-    </row>
-    <row r="67" ht="63.45" customHeight="1">
-      <c r="A67" s="24"/>
-      <c r="B67" s="22"/>
-      <c r="C67" t="s" s="15">
-        <v>113</v>
-      </c>
-      <c r="D67" t="s" s="15">
-        <v>105</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-    </row>
-    <row r="68" ht="63.45" customHeight="1">
-      <c r="A68" s="24"/>
-      <c r="B68" s="22"/>
-      <c r="C68" t="s" s="15">
-        <v>114</v>
-      </c>
-      <c r="D68" t="s" s="15">
-        <v>105</v>
-      </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-    </row>
-    <row r="69" ht="63.45" customHeight="1">
-      <c r="A69" s="24"/>
-      <c r="B69" t="s" s="18">
-        <v>115</v>
-      </c>
-      <c r="C69" t="s" s="19">
-        <v>116</v>
-      </c>
-      <c r="D69" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="24"/>
-    </row>
-    <row r="70" ht="63.45" customHeight="1">
-      <c r="A70" s="24"/>
-      <c r="B70" s="22"/>
-      <c r="C70" t="s" s="19">
-        <v>118</v>
-      </c>
-      <c r="D70" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-    </row>
-    <row r="71" ht="63.45" customHeight="1">
-      <c r="A71" s="24"/>
-      <c r="B71" s="22"/>
-      <c r="C71" t="s" s="19">
-        <v>119</v>
-      </c>
-      <c r="D71" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-    </row>
-    <row r="72" ht="63.45" customHeight="1">
-      <c r="A72" s="24"/>
-      <c r="B72" s="22"/>
-      <c r="C72" t="s" s="19">
-        <v>120</v>
-      </c>
-      <c r="D72" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-    </row>
-    <row r="73" ht="135" customHeight="1">
-      <c r="A73" s="24"/>
-      <c r="B73" s="22"/>
-      <c r="C73" t="s" s="15">
-        <v>121</v>
-      </c>
-      <c r="D73" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-    </row>
-    <row r="74" ht="72.95" customHeight="1">
-      <c r="A74" s="24"/>
-      <c r="B74" s="22"/>
-      <c r="C74" t="s" s="15">
-        <v>122</v>
-      </c>
-      <c r="D74" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-    </row>
-    <row r="75" ht="63.45" customHeight="1">
-      <c r="A75" s="24"/>
-      <c r="B75" s="22"/>
-      <c r="C75" t="s" s="15">
-        <v>123</v>
-      </c>
-      <c r="D75" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" ht="63.45" customHeight="1">
-      <c r="A76" s="24"/>
-      <c r="B76" s="22"/>
-      <c r="C76" t="s" s="15">
-        <v>124</v>
-      </c>
-      <c r="D76" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" ht="63.45" customHeight="1">
-      <c r="A77" s="24"/>
-      <c r="B77" s="22"/>
-      <c r="C77" t="s" s="15">
-        <v>125</v>
-      </c>
-      <c r="D77" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-    </row>
-    <row r="78" ht="63.45" customHeight="1">
-      <c r="A78" s="24"/>
-      <c r="B78" s="22"/>
-      <c r="C78" t="s" s="15">
-        <v>126</v>
-      </c>
-      <c r="D78" t="s" s="19">
-        <v>117</v>
-      </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="26">
-        <v>45241</v>
-      </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-    </row>
-    <row r="79" ht="63.45" customHeight="1">
-      <c r="A79" s="24"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-    </row>
-    <row r="80" ht="42.95" customHeight="1">
-      <c r="A80" s="24"/>
-      <c r="B80" t="s" s="18">
-        <v>127</v>
-      </c>
-      <c r="C80" t="s" s="19">
-        <v>128</v>
-      </c>
-      <c r="D80" t="s" s="19">
-        <v>129</v>
-      </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-    </row>
-    <row r="81" ht="57.95" customHeight="1">
-      <c r="A81" s="24"/>
-      <c r="B81" t="s" s="18">
-        <v>130</v>
-      </c>
-      <c r="C81" t="s" s="19">
-        <v>131</v>
-      </c>
-      <c r="D81" t="s" s="19">
-        <v>132</v>
-      </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" ht="57.95" customHeight="1">
-      <c r="A82" s="24"/>
-      <c r="B82" s="23"/>
-      <c r="C82" t="s" s="19">
-        <v>133</v>
-      </c>
-      <c r="D82" t="s" s="19">
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+    </row>
+    <row r="83" ht="63.45" customHeight="1">
+      <c r="A83" s="27"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+    </row>
+    <row r="84" ht="57.95" customHeight="1">
+      <c r="A84" s="27"/>
+      <c r="B84" t="s" s="20">
         <v>134</v>
       </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-    </row>
-    <row r="83" ht="42.95" customHeight="1">
-      <c r="A83" s="24"/>
-      <c r="B83" t="s" s="18">
+      <c r="C84" t="s" s="21">
         <v>135</v>
       </c>
-      <c r="C83" t="s" s="19">
+      <c r="D84" t="s" s="21">
         <v>136</v>
       </c>
-      <c r="D83" t="s" s="19">
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+    </row>
+    <row r="85" ht="57.95" customHeight="1">
+      <c r="A85" s="27"/>
+      <c r="B85" s="26"/>
+      <c r="C85" t="s" s="21">
         <v>137</v>
       </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-    </row>
-    <row r="84" ht="87.95" customHeight="1">
-      <c r="A84" s="24"/>
-      <c r="B84" t="s" s="18">
+      <c r="D85" t="s" s="21">
         <v>138</v>
       </c>
-      <c r="C84" t="s" s="19">
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+    </row>
+    <row r="86" ht="15" customHeight="1">
+      <c r="A86" s="27"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+    </row>
+    <row r="87" ht="87.95" customHeight="1">
+      <c r="A87" s="27"/>
+      <c r="B87" t="s" s="20">
         <v>139</v>
       </c>
-      <c r="D84" t="s" s="19">
+      <c r="C87" t="s" s="21">
         <v>140</v>
       </c>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-    </row>
-    <row r="85" ht="57.95" customHeight="1">
-      <c r="A85" s="24"/>
-      <c r="B85" t="s" s="18">
+      <c r="D87" t="s" s="21">
         <v>141</v>
       </c>
-      <c r="C85" t="s" s="19">
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+    </row>
+    <row r="88" ht="15" customHeight="1">
+      <c r="A88" s="27"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+    </row>
+    <row r="89" ht="57.95" customHeight="1">
+      <c r="A89" s="27"/>
+      <c r="B89" t="s" s="20">
+        <v>139</v>
+      </c>
+      <c r="C89" t="s" s="21">
         <v>142</v>
       </c>
-      <c r="D85" t="s" s="19">
-        <v>129</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-    </row>
-    <row r="86" ht="57.95" customHeight="1">
-      <c r="A86" s="24"/>
-      <c r="B86" s="23"/>
-      <c r="C86" t="s" s="19">
+      <c r="D89" t="s" s="21">
         <v>143</v>
       </c>
-      <c r="D86" t="s" s="19">
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+    </row>
+    <row r="90" ht="57.95" customHeight="1">
+      <c r="A90" s="27"/>
+      <c r="B90" s="26"/>
+      <c r="C90" t="s" s="21">
         <v>144</v>
       </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-    </row>
-    <row r="87" ht="57.95" customHeight="1">
-      <c r="A87" s="24"/>
-      <c r="B87" t="s" s="18">
-        <v>138</v>
-      </c>
-      <c r="C87" t="s" s="19">
+      <c r="D90" t="s" s="21">
         <v>145</v>
       </c>
-      <c r="D87" t="s" s="19">
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+    </row>
+    <row r="91" ht="60" customHeight="1">
+      <c r="A91" s="27"/>
+      <c r="B91" s="26"/>
+      <c r="C91" t="s" s="21">
         <v>146</v>
       </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-    </row>
-    <row r="88" ht="60" customHeight="1">
-      <c r="A88" s="24"/>
-      <c r="B88" s="23"/>
-      <c r="C88" t="s" s="19">
+      <c r="D91" t="s" s="21">
         <v>147</v>
       </c>
-      <c r="D88" t="s" s="19">
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+    </row>
+    <row r="92" ht="15" customHeight="1">
+      <c r="A92" s="27"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+    </row>
+    <row r="93" ht="42.95" customHeight="1">
+      <c r="A93" s="27"/>
+      <c r="B93" t="s" s="20">
         <v>148</v>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-    </row>
-    <row r="89" ht="77" customHeight="1">
-      <c r="A89" s="24"/>
-      <c r="B89" t="s" s="18">
+      <c r="C93" t="s" s="21">
         <v>149</v>
       </c>
-      <c r="C89" t="s" s="19">
+      <c r="D93" t="s" s="21">
         <v>150</v>
       </c>
-      <c r="D89" t="s" s="19">
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+    </row>
+    <row r="94" ht="42.95" customHeight="1">
+      <c r="A94" s="27"/>
+      <c r="B94" t="s" s="20">
         <v>151</v>
       </c>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-    </row>
-    <row r="90" ht="79" customHeight="1">
-      <c r="A90" s="24"/>
-      <c r="B90" t="s" s="18">
+      <c r="C94" t="s" s="21">
         <v>152</v>
       </c>
-      <c r="C90" t="s" s="19">
+      <c r="D94" t="s" s="21">
         <v>153</v>
       </c>
-      <c r="D90" t="s" s="19">
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+    </row>
+    <row r="95" ht="57.95" customHeight="1">
+      <c r="A95" s="27"/>
+      <c r="B95" t="s" s="20">
         <v>154</v>
       </c>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-    </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="24"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-    </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="24"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-    </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="24"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
+      <c r="C95" t="s" s="21">
+        <v>155</v>
+      </c>
+      <c r="D95" t="s" s="21">
+        <v>150</v>
+      </c>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+    </row>
+    <row r="96" ht="77" customHeight="1">
+      <c r="A96" s="27"/>
+      <c r="B96" t="s" s="20">
+        <v>156</v>
+      </c>
+      <c r="C96" t="s" s="21">
+        <v>157</v>
+      </c>
+      <c r="D96" t="s" s="21">
+        <v>158</v>
+      </c>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+    </row>
+    <row r="97" ht="79" customHeight="1">
+      <c r="A97" s="27"/>
+      <c r="B97" t="s" s="20">
+        <v>159</v>
+      </c>
+      <c r="C97" t="s" s="21">
+        <v>160</v>
+      </c>
+      <c r="D97" t="s" s="21">
+        <v>161</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="A98" s="27"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+    </row>
+    <row r="99" ht="15" customHeight="1">
+      <c r="A99" s="27"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+    </row>
+    <row r="100" ht="15" customHeight="1">
+      <c r="A100" s="27"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display="http://localhost/d.iblog2/23index.html にアクセス"/>

--- a/d.iblog2/単体テスト.xlsx
+++ b/d.iblog2/単体テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>表1</t>
   </si>
@@ -338,7 +338,10 @@
     <t>・項目の下に赤字で「メールアドレスを正しく入力してください」と表示</t>
   </si>
   <si>
-    <t>ハイフン、アットマーク以外の半角記号も入力できてします。</t>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>ハイフン、アットマーク以外の半角記号(アンダーバー)も入力できてします。</t>
   </si>
   <si>
     <t>パスワードの入力BOXに半角英数字以外の文字を入力し、「確認する」をクリック</t>
@@ -440,6 +443,27 @@
     <t>・登録画面で入力した内容が各項目正しく表示項目名の後に表示されている</t>
   </si>
   <si>
+    <t>パスワードの項目の入力内容が●で表示されている</t>
+  </si>
+  <si>
+    <t>・パスワードの項目は入力内容が●で暗号化されていることが確認できる</t>
+  </si>
+  <si>
+    <t>入力した内容が表示されている</t>
+  </si>
+  <si>
+    <t>性別の項目は「０」か「１」で表示されている</t>
+  </si>
+  <si>
+    <t>・男性を選択したの場合は「０」、女性を選択したの場合は「１」と表示されていることが確認できる</t>
+  </si>
+  <si>
+    <t>アカウント権限の項目「０」か「１」で表示されている</t>
+  </si>
+  <si>
+    <t>・一般を選択した場合は「０」、管理者を選択した場合は「１」と表示されていることが確認できる</t>
+  </si>
+  <si>
     <t>「修正」「登録」のボタンがあることを目視で確認</t>
   </si>
   <si>
@@ -455,46 +479,52 @@
     <t>・登録画面が表示した時、パスワード以外の項目の入力内容がそのままの状態で保持されていることが確認できる</t>
   </si>
   <si>
+    <t>パスワードの項目も入力内容が保持されている</t>
+  </si>
+  <si>
     <t>「登録ありがとうございました」と表示されていることを目視で確認</t>
   </si>
   <si>
     <t>・登録完了のメッセージが正しく表示されていることを確認する</t>
   </si>
   <si>
+    <t>画面下部に「TOP」のボタンがあることを目視で確認</t>
+  </si>
+  <si>
+    <t>・登録完了メッセージの下に「TOP」のボタンがあることが確認できる</t>
+  </si>
+  <si>
+    <t>画面遷移（登録画面〜確認画面）</t>
+  </si>
+  <si>
+    <t>全ての項目を入力後「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>・登録確認画面を表示</t>
+  </si>
+  <si>
+    <t>画面遷移（確認画面〜登録画面）</t>
+  </si>
+  <si>
+    <t>「修正」のボタンをクリック</t>
+  </si>
+  <si>
+    <t>・「修正」をクリックし、登録画面に画面遷移する</t>
+  </si>
+  <si>
+    <t>パスワードの欄にエラーメッセージが表示されていて、登録画面に遷移しない</t>
+  </si>
+  <si>
+    <t>画面遷移（登録確認画面〜登録完了画面）</t>
+  </si>
+  <si>
+    <t>登録画面でパスワードを登録し、「確認する」をクリック</t>
+  </si>
+  <si>
     <t>「登録」のボタンをクリック</t>
   </si>
   <si>
     <t>「登録」ボタンをクリックし、登録完了画面が表示されてことを確認</t>
-  </si>
-  <si>
-    <t>画面下部に「TOP」のボタンがあることを目視で確認</t>
-  </si>
-  <si>
-    <t>・登録完了メッセージの下に「TOP」のボタンがあることが確認できる</t>
-  </si>
-  <si>
-    <t>画面遷移（登録画面〜確認画面）</t>
-  </si>
-  <si>
-    <t>全ての項目を入力後「確認する」をクリック</t>
-  </si>
-  <si>
-    <t>・登録確認画面を表示</t>
-  </si>
-  <si>
-    <t>画面遷移（確認画面〜登録画面）</t>
-  </si>
-  <si>
-    <t>「修正」のボタンをクリック</t>
-  </si>
-  <si>
-    <t>・「修正」をクリックし、登録画面に画面遷移する</t>
-  </si>
-  <si>
-    <t>画面遷移（登録確認画面〜登録完了画面）</t>
-  </si>
-  <si>
-    <t>登録画面でパスワードを登録し、「確認する」をクリック</t>
   </si>
   <si>
     <t>画面遷移（登録完了画面〜D.Iblog）</t>
@@ -1970,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3230,9 +3260,11 @@
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="29">
-        <v>45241</v>
-      </c>
-      <c r="G58" s="18"/>
+        <v>45243</v>
+      </c>
+      <c r="G58" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
@@ -3252,9 +3284,11 @@
       <c r="F59" s="29">
         <v>45241</v>
       </c>
-      <c r="G59" s="18"/>
+      <c r="G59" t="s" s="17">
+        <v>103</v>
+      </c>
       <c r="H59" t="s" s="17">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
@@ -3265,16 +3299,18 @@
       </c>
       <c r="B60" s="26"/>
       <c r="C60" t="s" s="21">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s" s="21">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="29">
         <v>45241</v>
       </c>
-      <c r="G60" s="18"/>
+      <c r="G60" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
@@ -3285,16 +3321,18 @@
       </c>
       <c r="B61" s="25"/>
       <c r="C61" t="s" s="17">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s" s="17">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="29">
         <v>45241</v>
       </c>
-      <c r="G61" s="18"/>
+      <c r="G61" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
@@ -3305,16 +3343,18 @@
       </c>
       <c r="B62" s="26"/>
       <c r="C62" t="s" s="21">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s" s="21">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="29">
         <v>45241</v>
       </c>
-      <c r="G62" s="18"/>
+      <c r="G62" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
@@ -3325,16 +3365,18 @@
       </c>
       <c r="B63" s="25"/>
       <c r="C63" t="s" s="17">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s" s="17">
         <v>110</v>
-      </c>
-      <c r="D63" t="s" s="17">
-        <v>109</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="29">
         <v>45241</v>
       </c>
-      <c r="G63" s="18"/>
+      <c r="G63" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
@@ -3345,16 +3387,18 @@
       </c>
       <c r="B64" s="25"/>
       <c r="C64" t="s" s="17">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s" s="17">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="29">
         <v>45241</v>
       </c>
-      <c r="G64" s="18"/>
+      <c r="G64" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
@@ -3365,16 +3409,18 @@
       </c>
       <c r="B65" s="25"/>
       <c r="C65" t="s" s="17">
+        <v>114</v>
+      </c>
+      <c r="D65" t="s" s="17">
         <v>113</v>
-      </c>
-      <c r="D65" t="s" s="17">
-        <v>112</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="29">
         <v>45241</v>
       </c>
-      <c r="G65" s="18"/>
+      <c r="G65" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
@@ -3385,16 +3431,18 @@
       </c>
       <c r="B66" s="25"/>
       <c r="C66" t="s" s="17">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s" s="17">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="29">
         <v>45241</v>
       </c>
-      <c r="G66" s="18"/>
+      <c r="G66" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
@@ -3405,16 +3453,18 @@
       </c>
       <c r="B67" s="25"/>
       <c r="C67" t="s" s="17">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s" s="17">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="29">
         <v>45241</v>
       </c>
-      <c r="G67" s="18"/>
+      <c r="G67" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
@@ -3425,16 +3475,18 @@
       </c>
       <c r="B68" s="25"/>
       <c r="C68" t="s" s="17">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s" s="17">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="29">
         <v>45241</v>
       </c>
-      <c r="G68" s="18"/>
+      <c r="G68" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
@@ -3445,16 +3497,18 @@
       </c>
       <c r="B69" s="25"/>
       <c r="C69" t="s" s="17">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s" s="17">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="29">
         <v>45241</v>
       </c>
-      <c r="G69" s="18"/>
+      <c r="G69" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
@@ -3465,16 +3519,18 @@
       </c>
       <c r="B70" s="25"/>
       <c r="C70" t="s" s="17">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s" s="17">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="29">
         <v>45241</v>
       </c>
-      <c r="G70" s="18"/>
+      <c r="G70" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
@@ -3485,16 +3541,18 @@
       </c>
       <c r="B71" s="25"/>
       <c r="C71" t="s" s="17">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s" s="17">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="29">
         <v>45241</v>
       </c>
-      <c r="G71" s="18"/>
+      <c r="G71" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
@@ -3505,16 +3563,18 @@
       </c>
       <c r="B72" s="25"/>
       <c r="C72" t="s" s="17">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s" s="17">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="29">
         <v>45241</v>
       </c>
-      <c r="G72" s="18"/>
+      <c r="G72" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
@@ -3524,19 +3584,21 @@
         <v>66</v>
       </c>
       <c r="B73" t="s" s="20">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s" s="21">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="29">
         <v>45241</v>
       </c>
-      <c r="G73" s="18"/>
+      <c r="G73" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
       <c r="J73" s="27"/>
@@ -3547,16 +3609,18 @@
       </c>
       <c r="B74" s="25"/>
       <c r="C74" t="s" s="21">
+        <v>126</v>
+      </c>
+      <c r="D74" t="s" s="21">
         <v>125</v>
-      </c>
-      <c r="D74" t="s" s="21">
-        <v>124</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="29">
         <v>45241</v>
       </c>
-      <c r="G74" s="18"/>
+      <c r="G74" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
       <c r="J74" s="18"/>
@@ -3567,16 +3631,18 @@
       </c>
       <c r="B75" s="25"/>
       <c r="C75" t="s" s="21">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D75" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="29">
         <v>45241</v>
       </c>
-      <c r="G75" s="18"/>
+      <c r="G75" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18"/>
@@ -3587,16 +3653,18 @@
       </c>
       <c r="B76" s="25"/>
       <c r="C76" t="s" s="21">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="29">
         <v>45241</v>
       </c>
-      <c r="G76" s="18"/>
+      <c r="G76" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H76" s="18"/>
       <c r="I76" s="18"/>
       <c r="J76" s="18"/>
@@ -3607,106 +3675,128 @@
       </c>
       <c r="B77" s="25"/>
       <c r="C77" t="s" s="17">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D77" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="29">
         <v>45241</v>
       </c>
-      <c r="G77" s="18"/>
+      <c r="G77" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
     </row>
     <row r="78" ht="72.95" customHeight="1">
-      <c r="A78" s="27"/>
+      <c r="A78" s="15">
+        <v>71</v>
+      </c>
       <c r="B78" s="25"/>
       <c r="C78" t="s" s="17">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D78" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="29">
         <v>45241</v>
       </c>
-      <c r="G78" s="18"/>
+      <c r="G78" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
       <c r="J78" s="18"/>
     </row>
     <row r="79" ht="63.45" customHeight="1">
-      <c r="A79" s="27"/>
+      <c r="A79" s="15">
+        <v>72</v>
+      </c>
       <c r="B79" s="25"/>
       <c r="C79" t="s" s="17">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D79" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="29">
         <v>45241</v>
       </c>
-      <c r="G79" s="18"/>
+      <c r="G79" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
       <c r="J79" s="18"/>
     </row>
     <row r="80" ht="63.45" customHeight="1">
-      <c r="A80" s="27"/>
+      <c r="A80" s="15">
+        <v>73</v>
+      </c>
       <c r="B80" s="25"/>
       <c r="C80" t="s" s="17">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D80" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="29">
         <v>45241</v>
       </c>
-      <c r="G80" s="18"/>
+      <c r="G80" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
       <c r="J80" s="18"/>
     </row>
     <row r="81" ht="63.45" customHeight="1">
-      <c r="A81" s="27"/>
+      <c r="A81" s="15">
+        <v>74</v>
+      </c>
       <c r="B81" s="25"/>
       <c r="C81" t="s" s="17">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D81" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="29">
         <v>45241</v>
       </c>
-      <c r="G81" s="18"/>
+      <c r="G81" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
       <c r="J81" s="18"/>
     </row>
     <row r="82" ht="63.45" customHeight="1">
-      <c r="A82" s="27"/>
+      <c r="A82" s="15">
+        <v>75</v>
+      </c>
       <c r="B82" s="25"/>
       <c r="C82" t="s" s="17">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D82" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="29">
         <v>45241</v>
       </c>
-      <c r="G82" s="18"/>
+      <c r="G82" t="s" s="17">
+        <v>13</v>
+      </c>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
       <c r="J82" s="18"/>
@@ -3724,108 +3814,150 @@
       <c r="J83" s="18"/>
     </row>
     <row r="84" ht="57.95" customHeight="1">
-      <c r="A84" s="27"/>
+      <c r="A84" s="15">
+        <v>76</v>
+      </c>
       <c r="B84" t="s" s="20">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s" s="21">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s" s="21">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
+      <c r="F84" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G84" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
     </row>
-    <row r="85" ht="57.95" customHeight="1">
-      <c r="A85" s="27"/>
+    <row r="85" ht="60" customHeight="1">
+      <c r="A85" s="15">
+        <v>77</v>
+      </c>
       <c r="B85" s="26"/>
       <c r="C85" t="s" s="21">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s" s="21">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
+      <c r="F85" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G85" t="s" s="21">
+        <v>103</v>
+      </c>
+      <c r="H85" t="s" s="21">
+        <v>140</v>
+      </c>
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
     </row>
-    <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="27"/>
+    <row r="86" ht="87.95" customHeight="1">
+      <c r="A86" s="15">
+        <v>78</v>
+      </c>
       <c r="B86" s="26"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="C86" t="s" s="21">
+        <v>141</v>
+      </c>
+      <c r="D86" t="s" s="21">
+        <v>142</v>
+      </c>
       <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
+      <c r="F86" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G86" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
     </row>
     <row r="87" ht="87.95" customHeight="1">
-      <c r="A87" s="27"/>
-      <c r="B87" t="s" s="20">
-        <v>139</v>
-      </c>
+      <c r="A87" s="15">
+        <v>79</v>
+      </c>
+      <c r="B87" s="26"/>
       <c r="C87" t="s" s="21">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s" s="21">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
+      <c r="F87" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G87" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
     </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="27"/>
+    <row r="88" ht="57.95" customHeight="1">
+      <c r="A88" s="15">
+        <v>80</v>
+      </c>
       <c r="B88" s="26"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+      <c r="C88" t="s" s="21">
+        <v>145</v>
+      </c>
+      <c r="D88" t="s" s="21">
+        <v>146</v>
+      </c>
       <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
+      <c r="F88" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G88" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
     </row>
-    <row r="89" ht="57.95" customHeight="1">
-      <c r="A89" s="27"/>
+    <row r="89" ht="87.95" customHeight="1">
+      <c r="A89" s="15">
+        <v>81</v>
+      </c>
       <c r="B89" t="s" s="20">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s" s="21">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D89" t="s" s="21">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
+      <c r="F89" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G89" t="s" s="21">
+        <v>103</v>
+      </c>
+      <c r="H89" t="s" s="21">
+        <v>150</v>
+      </c>
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
     </row>
-    <row r="90" ht="57.95" customHeight="1">
+    <row r="90" ht="15" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="26"/>
-      <c r="C90" t="s" s="21">
-        <v>144</v>
-      </c>
-      <c r="D90" t="s" s="21">
-        <v>145</v>
-      </c>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="22"/>
       <c r="F90" s="22"/>
       <c r="G90" s="22"/>
@@ -3833,45 +3965,57 @@
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
     </row>
-    <row r="91" ht="60" customHeight="1">
-      <c r="A91" s="27"/>
-      <c r="B91" s="26"/>
+    <row r="91" ht="57.95" customHeight="1">
+      <c r="A91" s="15">
+        <v>82</v>
+      </c>
+      <c r="B91" t="s" s="20">
+        <v>147</v>
+      </c>
       <c r="C91" t="s" s="21">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D91" t="s" s="21">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
+      <c r="F91" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G91" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
     </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="27"/>
+    <row r="92" ht="60" customHeight="1">
+      <c r="A92" s="15">
+        <v>83</v>
+      </c>
       <c r="B92" s="26"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="C92" t="s" s="21">
+        <v>153</v>
+      </c>
+      <c r="D92" t="s" s="21">
+        <v>154</v>
+      </c>
       <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
+      <c r="F92" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G92" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
     </row>
-    <row r="93" ht="42.95" customHeight="1">
+    <row r="93" ht="15" customHeight="1">
       <c r="A93" s="27"/>
-      <c r="B93" t="s" s="20">
-        <v>148</v>
-      </c>
-      <c r="C93" t="s" s="21">
-        <v>149</v>
-      </c>
-      <c r="D93" t="s" s="21">
-        <v>150</v>
-      </c>
+      <c r="B93" s="26"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
@@ -3879,17 +4023,11 @@
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
     </row>
-    <row r="94" ht="42.95" customHeight="1">
+    <row r="94" ht="15" customHeight="1">
       <c r="A94" s="27"/>
-      <c r="B94" t="s" s="20">
-        <v>151</v>
-      </c>
-      <c r="C94" t="s" s="21">
-        <v>152</v>
-      </c>
-      <c r="D94" t="s" s="21">
-        <v>153</v>
-      </c>
+      <c r="B94" s="26"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
       <c r="G94" s="22"/>
@@ -3897,52 +4035,62 @@
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
     </row>
-    <row r="95" ht="57.95" customHeight="1">
+    <row r="95" ht="42.95" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" t="s" s="20">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s" s="21">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D95" t="s" s="21">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
+      <c r="F95" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G95" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
     </row>
-    <row r="96" ht="77" customHeight="1">
+    <row r="96" ht="57.95" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" t="s" s="20">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s" s="21">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D96" t="s" s="21">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
+      <c r="F96" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G96" t="s" s="21">
+        <v>103</v>
+      </c>
+      <c r="H96" t="s" s="21">
+        <v>161</v>
+      </c>
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
     </row>
-    <row r="97" ht="79" customHeight="1">
+    <row r="97" ht="57.95" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" t="s" s="20">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C97" t="s" s="21">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D97" t="s" s="21">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
@@ -3951,41 +4099,101 @@
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98" ht="57.95" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="26"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="C98" t="s" s="21">
+        <v>164</v>
+      </c>
+      <c r="D98" t="s" s="21">
+        <v>165</v>
+      </c>
       <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
+      <c r="F98" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G98" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
     </row>
-    <row r="99" ht="15" customHeight="1">
+    <row r="99" ht="77" customHeight="1">
       <c r="A99" s="27"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="B99" t="s" s="20">
+        <v>166</v>
+      </c>
+      <c r="C99" t="s" s="21">
+        <v>167</v>
+      </c>
+      <c r="D99" t="s" s="21">
+        <v>168</v>
+      </c>
       <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
+      <c r="F99" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G99" t="s" s="21">
+        <v>13</v>
+      </c>
       <c r="H99" s="22"/>
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
     </row>
-    <row r="100" ht="15" customHeight="1">
+    <row r="100" ht="79" customHeight="1">
       <c r="A100" s="27"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="B100" t="s" s="20">
+        <v>169</v>
+      </c>
+      <c r="C100" t="s" s="21">
+        <v>170</v>
+      </c>
+      <c r="D100" t="s" s="21">
+        <v>171</v>
+      </c>
       <c r="E100" s="22"/>
       <c r="F100" s="22"/>
       <c r="G100" s="22"/>
       <c r="H100" s="22"/>
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
+    </row>
+    <row r="101" ht="15" customHeight="1">
+      <c r="A101" s="27"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
+    </row>
+    <row r="102" ht="15" customHeight="1">
+      <c r="A102" s="27"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+    </row>
+    <row r="103" ht="15" customHeight="1">
+      <c r="A103" s="27"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/d.iblog2/単体テスト.xlsx
+++ b/d.iblog2/単体テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>表1</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>登録画面でパスワードを登録し、「確認する」をクリック</t>
+  </si>
+  <si>
+    <t>「修正」で画面遷移しないため、確認できない</t>
   </si>
   <si>
     <t>「登録」のボタンをクリック</t>
@@ -2000,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -4036,7 +4039,9 @@
       <c r="J94" s="22"/>
     </row>
     <row r="95" ht="42.95" customHeight="1">
-      <c r="A95" s="27"/>
+      <c r="A95" s="15">
+        <v>1</v>
+      </c>
       <c r="B95" t="s" s="20">
         <v>155</v>
       </c>
@@ -4058,7 +4063,9 @@
       <c r="J95" s="22"/>
     </row>
     <row r="96" ht="57.95" customHeight="1">
-      <c r="A96" s="27"/>
+      <c r="A96" s="15">
+        <v>2</v>
+      </c>
       <c r="B96" t="s" s="20">
         <v>158</v>
       </c>
@@ -4082,7 +4089,9 @@
       <c r="J96" s="22"/>
     </row>
     <row r="97" ht="57.95" customHeight="1">
-      <c r="A97" s="27"/>
+      <c r="A97" s="15">
+        <v>3</v>
+      </c>
       <c r="B97" t="s" s="20">
         <v>162</v>
       </c>
@@ -4093,20 +4102,28 @@
         <v>157</v>
       </c>
       <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
+      <c r="F97" s="28">
+        <v>45243</v>
+      </c>
+      <c r="G97" t="s" s="21">
+        <v>103</v>
+      </c>
+      <c r="H97" t="s" s="21">
+        <v>164</v>
+      </c>
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
     </row>
     <row r="98" ht="57.95" customHeight="1">
-      <c r="A98" s="27"/>
+      <c r="A98" s="15">
+        <v>4</v>
+      </c>
       <c r="B98" s="26"/>
       <c r="C98" t="s" s="21">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D98" t="s" s="21">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E98" s="22"/>
       <c r="F98" s="28">
@@ -4120,15 +4137,17 @@
       <c r="J98" s="22"/>
     </row>
     <row r="99" ht="77" customHeight="1">
-      <c r="A99" s="27"/>
+      <c r="A99" s="15">
+        <v>5</v>
+      </c>
       <c r="B99" t="s" s="20">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s" s="21">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D99" t="s" s="21">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E99" s="22"/>
       <c r="F99" s="28">
@@ -4141,17 +4160,11 @@
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
     </row>
-    <row r="100" ht="79" customHeight="1">
+    <row r="100" ht="15" customHeight="1">
       <c r="A100" s="27"/>
-      <c r="B100" t="s" s="20">
-        <v>169</v>
-      </c>
-      <c r="C100" t="s" s="21">
-        <v>170</v>
-      </c>
-      <c r="D100" t="s" s="21">
-        <v>171</v>
-      </c>
+      <c r="B100" s="26"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="22"/>
       <c r="F100" s="22"/>
       <c r="G100" s="22"/>
@@ -4159,11 +4172,17 @@
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
     </row>
-    <row r="101" ht="15" customHeight="1">
+    <row r="101" ht="79" customHeight="1">
       <c r="A101" s="27"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="B101" t="s" s="20">
+        <v>170</v>
+      </c>
+      <c r="C101" t="s" s="21">
+        <v>171</v>
+      </c>
+      <c r="D101" t="s" s="21">
+        <v>172</v>
+      </c>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
@@ -4194,6 +4213,18 @@
       <c r="H103" s="22"/>
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
+    </row>
+    <row r="104" ht="15" customHeight="1">
+      <c r="A104" s="27"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
